--- a/datasets/lista_empresas.xlsx
+++ b/datasets/lista_empresas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="2121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="2122">
   <si>
     <t>empresa</t>
   </si>
@@ -2296,7 +2296,7 @@
     <t>LOGN3</t>
   </si>
   <si>
-    <t>LAME4</t>
+    <t>AMER3</t>
   </si>
   <si>
     <t>AMAR3</t>
@@ -3943,2320 +3943,2323 @@
     <t>Zamp</t>
   </si>
   <si>
+    <t>Venture Capital Participações e Investimentos</t>
+  </si>
+  <si>
+    <t>12.091.809/0001-55</t>
+  </si>
+  <si>
+    <t>94.813.102/0001-70</t>
+  </si>
+  <si>
+    <t>02.003.402/0001-75</t>
+  </si>
+  <si>
+    <t>61.022.042/0001-18</t>
+  </si>
+  <si>
+    <t>12.528.708/0001-07</t>
+  </si>
+  <si>
+    <t>37.663.076/0001-07</t>
+  </si>
+  <si>
+    <t>04.128.563/0001-10</t>
+  </si>
+  <si>
+    <t>10.338.320/0001-00</t>
+  </si>
+  <si>
+    <t>21.240.146/0001-84</t>
+  </si>
+  <si>
+    <t>07.336.695/0001-26</t>
+  </si>
+  <si>
+    <t>17.167.412/0001-13</t>
+  </si>
+  <si>
+    <t>17.167.396/0001-69</t>
+  </si>
+  <si>
+    <t>60.770.336/0001-65</t>
+  </si>
+  <si>
+    <t>05.878.397/0001-32</t>
+  </si>
+  <si>
+    <t>61.156.931/0001-78</t>
+  </si>
+  <si>
+    <t>42.771.949/0001-35</t>
+  </si>
+  <si>
+    <t>20.247.322/0001-47</t>
+  </si>
+  <si>
+    <t>61.079.117/0001-05</t>
+  </si>
+  <si>
+    <t>11.721.921/0001-60</t>
+  </si>
+  <si>
+    <t>16.811.931/0001-00</t>
+  </si>
+  <si>
+    <t>08.364.948/0001-38</t>
+  </si>
+  <si>
+    <t>77.294.254/0063-97</t>
+  </si>
+  <si>
+    <t>07.526.557/0001-00</t>
+  </si>
+  <si>
+    <t>12.648.266/0001-24</t>
+  </si>
+  <si>
+    <t>33.050.071/0001-58</t>
+  </si>
+  <si>
+    <t>09.288.252/0001-32</t>
+  </si>
+  <si>
+    <t>16.590.234/0001-76</t>
+  </si>
+  <si>
+    <t>00.242.184/0001-04</t>
+  </si>
+  <si>
+    <t>06.057.223/0001-71</t>
+  </si>
+  <si>
+    <t>04.032.433/0001-80</t>
+  </si>
+  <si>
+    <t>00.359.742/0001-08</t>
+  </si>
+  <si>
+    <t>56.991.441/0001-57</t>
+  </si>
+  <si>
+    <t>61.351.532/0001-68</t>
+  </si>
+  <si>
+    <t>09.305.994/0001-29</t>
+  </si>
+  <si>
+    <t>09.346.601/0001-25</t>
+  </si>
+  <si>
+    <t>45.987.245/0001-92</t>
+  </si>
+  <si>
+    <t>28.195.667/0001-06</t>
+  </si>
+  <si>
+    <t>61.186.680/0001-74</t>
+  </si>
+  <si>
+    <t>60.746.948/0001-12</t>
+  </si>
+  <si>
+    <t>30.306.294/0001-45</t>
+  </si>
+  <si>
+    <t>04.902.979/0001-44</t>
+  </si>
+  <si>
+    <t>00.000.208/0001-00</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-91</t>
+  </si>
+  <si>
+    <t>07.237.373/0001-20</t>
+  </si>
+  <si>
+    <t>00.416.968/0001-01</t>
+  </si>
+  <si>
+    <t>34.169.557/0001-72</t>
+  </si>
+  <si>
+    <t>17.184.037/0001-10</t>
+  </si>
+  <si>
+    <t>30.723.886/0001-62</t>
+  </si>
+  <si>
+    <t>59.285.411/0001-13</t>
+  </si>
+  <si>
+    <t>90.400.888/0001-42</t>
+  </si>
+  <si>
+    <t>13.009.717/0001-46</t>
+  </si>
+  <si>
+    <t>28.127.603/0001-78</t>
+  </si>
+  <si>
+    <t>04.913.711/0001-08</t>
+  </si>
+  <si>
+    <t>92.702.067/0001-96</t>
+  </si>
+  <si>
+    <t>60.851.615/0001-53</t>
+  </si>
+  <si>
+    <t>61.374.161/0001-30</t>
+  </si>
+  <si>
+    <t>17.344.597/0001-94</t>
+  </si>
+  <si>
+    <t>13.188.854/0001-95</t>
+  </si>
+  <si>
+    <t>09.042.817/0001-05</t>
+  </si>
+  <si>
+    <t>04.752.991/0001-10</t>
+  </si>
+  <si>
+    <t>15.527.906/0001-36</t>
+  </si>
+  <si>
+    <t>13.574.594/0001-96</t>
+  </si>
+  <si>
+    <t>58.430.828/0001-60</t>
+  </si>
+  <si>
+    <t>60.637.238/0001-54</t>
+  </si>
+  <si>
+    <t>10.807.374/0001-77</t>
+  </si>
+  <si>
+    <t>11.725.176/0001-27</t>
+  </si>
+  <si>
+    <t>50.564.053/0001-03</t>
+  </si>
+  <si>
+    <t>06.977.751/0001-49</t>
+  </si>
+  <si>
+    <t>03.847.461/0001-92</t>
+  </si>
+  <si>
+    <t>09.478.309/0006-70</t>
+  </si>
+  <si>
+    <t>08.613.550/0001-98</t>
+  </si>
+  <si>
+    <t>07.628.528/0001-59</t>
+  </si>
+  <si>
+    <t>42.150.391/0001-70</t>
+  </si>
+  <si>
+    <t>01.838.723/0001-27</t>
+  </si>
+  <si>
+    <t>19.796.586/0001-70</t>
+  </si>
+  <si>
+    <t>06.977.745/0001-91</t>
+  </si>
+  <si>
+    <t>84.046.101/0001-93</t>
+  </si>
+  <si>
+    <t>45.242.914/0001-05</t>
+  </si>
+  <si>
+    <t>22.543.331/0001-00</t>
+  </si>
+  <si>
+    <t>61.088.894/0001-08</t>
+  </si>
+  <si>
+    <t>64.904.295/0001-03</t>
+  </si>
+  <si>
+    <t>01.896.779/0001-38</t>
+  </si>
+  <si>
+    <t>60.498.706/0370-77</t>
+  </si>
+  <si>
+    <t>75.315.333/0001-09</t>
+  </si>
+  <si>
+    <t>82.508.433/0001-17</t>
+  </si>
+  <si>
+    <t>61.409.892/0001-73</t>
+  </si>
+  <si>
+    <t>00.070.698/0001-11</t>
+  </si>
+  <si>
+    <t>17.245.234/0001-00</t>
+  </si>
+  <si>
+    <t>08.467.115/0001-00</t>
+  </si>
+  <si>
+    <t>92.715.812/0001-31</t>
+  </si>
+  <si>
+    <t>83.878.892/0001-55</t>
+  </si>
+  <si>
+    <t>08.560.444/0001-93</t>
+  </si>
+  <si>
+    <t>10.835.932/0001-08</t>
+  </si>
+  <si>
+    <t>93.828.986/0001-73</t>
+  </si>
+  <si>
+    <t>17.155.730/0001-64</t>
+  </si>
+  <si>
+    <t>60.933.603/0001-78</t>
+  </si>
+  <si>
+    <t>15.144.017/0001-90</t>
+  </si>
+  <si>
+    <t>01.027.058/0001-91</t>
+  </si>
+  <si>
+    <t>33.010.786/0001-87</t>
+  </si>
+  <si>
+    <t>03.802.115/0001-98</t>
+  </si>
+  <si>
+    <t>15.139.629/0001-94</t>
+  </si>
+  <si>
+    <t>07.047.251/0001-70</t>
+  </si>
+  <si>
+    <t>02.800.026/0001-40</t>
+  </si>
+  <si>
+    <t>61.856.571/0001-17</t>
+  </si>
+  <si>
+    <t>97.191.902/0001-94</t>
+  </si>
+  <si>
+    <t>17.193.806/0001-46</t>
+  </si>
+  <si>
+    <t>71.476.527/0001-35</t>
+  </si>
+  <si>
+    <t>17.281.106/0001-03</t>
+  </si>
+  <si>
+    <t>76.483.817/0001-20</t>
+  </si>
+  <si>
+    <t>15.101.405/0001-93</t>
+  </si>
+  <si>
+    <t>50.746.577/0001-15</t>
+  </si>
+  <si>
+    <t>08.324.196/0001-81</t>
+  </si>
+  <si>
+    <t>22.677.520/0001-76</t>
+  </si>
+  <si>
+    <t>02.429.144/0001-93</t>
+  </si>
+  <si>
+    <t>07.820.907/0001-46</t>
+  </si>
+  <si>
+    <t>62.984.091/0001-02</t>
+  </si>
+  <si>
+    <t>33.042.730/0001-04</t>
+  </si>
+  <si>
+    <t>08.902.291/0001-15</t>
+  </si>
+  <si>
+    <t>02.998.611/0001-04</t>
+  </si>
+  <si>
+    <t>08.797.760/0001-83</t>
+  </si>
+  <si>
+    <t>61.649.810/0003-20</t>
+  </si>
+  <si>
+    <t>10.760.260/0001-19</t>
+  </si>
+  <si>
+    <t>73.178.600/0001-18</t>
+  </si>
+  <si>
+    <t>12.108.897/0001-50</t>
+  </si>
+  <si>
+    <t>61.486.650/0001-83</t>
+  </si>
+  <si>
+    <t>08.170.849/0001-15</t>
+  </si>
+  <si>
+    <t>97.837.181/0001-47</t>
+  </si>
+  <si>
+    <t>02.193.750/0001-52</t>
+  </si>
+  <si>
+    <t>92.665.611/0001-77</t>
+  </si>
+  <si>
+    <t>16.614.075/0001-00</t>
+  </si>
+  <si>
+    <t>84.683.408/0001-03</t>
+  </si>
+  <si>
+    <t>08.926.302/0001-05</t>
+  </si>
+  <si>
+    <t>18.174.270/0001-84</t>
+  </si>
+  <si>
+    <t>03.303.999/0001-36</t>
+  </si>
+  <si>
+    <t>04.149.454/0001-80</t>
+  </si>
+  <si>
+    <t>03.983.431/0001-03</t>
+  </si>
+  <si>
+    <t>82.643.537/0001-34</t>
+  </si>
+  <si>
+    <t>02.328.280/0001-97</t>
+  </si>
+  <si>
+    <t>00.001.180/0001-26</t>
+  </si>
+  <si>
+    <t>09.347.516/0001-81</t>
+  </si>
+  <si>
+    <t>01.104.937/0001-70</t>
+  </si>
+  <si>
+    <t>02.302.101/0001-42</t>
+  </si>
+  <si>
+    <t>42.331.462/0001-31</t>
+  </si>
+  <si>
+    <t>07.689.002/0001-89</t>
+  </si>
+  <si>
+    <t>11.669.021/0001-10</t>
+  </si>
+  <si>
+    <t>01.971.614/0001-83</t>
+  </si>
+  <si>
+    <t>00.864.214/0001-06</t>
+  </si>
+  <si>
+    <t>03.467.321/0001-99</t>
+  </si>
+  <si>
+    <t>04.423.567/0001-21</t>
+  </si>
+  <si>
+    <t>02.474.103/0001-19</t>
+  </si>
+  <si>
+    <t>16.922.038/0001-51</t>
+  </si>
+  <si>
+    <t>03.220.438/0001-73</t>
+  </si>
+  <si>
+    <t>04.895.728/0001-80</t>
+  </si>
+  <si>
+    <t>06.272.793/0001-84</t>
+  </si>
+  <si>
+    <t>26.659.061/0001-59</t>
+  </si>
+  <si>
+    <t>60.537.263/0001-66</t>
+  </si>
+  <si>
+    <t>61.082.004/0001-50</t>
+  </si>
+  <si>
+    <t>61.092.037/0001-81</t>
+  </si>
+  <si>
+    <t>56.643.018/0001-66</t>
+  </si>
+  <si>
+    <t>43.470.988/0001-65</t>
+  </si>
+  <si>
+    <t>95.426.862/0001-97</t>
+  </si>
+  <si>
+    <t>08.312.229/0001-73</t>
+  </si>
+  <si>
+    <t>00.924.429/0001-75</t>
+  </si>
+  <si>
+    <t>15.141.799/0001-03</t>
+  </si>
+  <si>
+    <t>22.266.175/0001-88</t>
+  </si>
+  <si>
+    <t>60.840.055/0001-31</t>
+  </si>
+  <si>
+    <t>91.669.747/0001-92</t>
+  </si>
+  <si>
+    <t>26.735.020/0001-02</t>
+  </si>
+  <si>
+    <t>88.610.126/0001-29</t>
+  </si>
+  <si>
+    <t>01.545.826/0001-07</t>
+  </si>
+  <si>
+    <t>08.764.621/0001-53</t>
+  </si>
+  <si>
+    <t>33.611.500/0001-19</t>
+  </si>
+  <si>
+    <t>10.440.482/0001-54</t>
+  </si>
+  <si>
+    <t>14.127.813/0001-51</t>
+  </si>
+  <si>
+    <t>06.164.253/0001-87</t>
+  </si>
+  <si>
+    <t>09.229.201/0001-30</t>
+  </si>
+  <si>
+    <t>92.012.467/0001-70</t>
+  </si>
+  <si>
+    <t>89.850.341/0001-60</t>
+  </si>
+  <si>
+    <t>10.425.282/0001-22</t>
+  </si>
+  <si>
+    <t>11.137.051/0001-86</t>
+  </si>
+  <si>
+    <t>02.846.056/0001-97</t>
+  </si>
+  <si>
+    <t>10.239.544/0001-64</t>
+  </si>
+  <si>
+    <t>24.990.777/0001-09</t>
+  </si>
+  <si>
+    <t>47.508.411/0001-56</t>
+  </si>
+  <si>
+    <t>13.217.485/0001-11</t>
+  </si>
+  <si>
+    <t>10.285.590/0001-08</t>
+  </si>
+  <si>
+    <t>23.373.000/0001-32</t>
+  </si>
+  <si>
+    <t>08.402.943/0001-52</t>
+  </si>
+  <si>
+    <t>87.762.563/0001-03</t>
+  </si>
+  <si>
+    <t>30.540.991/0001-66</t>
+  </si>
+  <si>
+    <t>05.197.443/0001-38</t>
+  </si>
+  <si>
+    <t>14.785.152/0001-51</t>
+  </si>
+  <si>
+    <t>49.263.189/0001-02</t>
+  </si>
+  <si>
+    <t>92.749.225/0001-63</t>
+  </si>
+  <si>
+    <t>78.876.950/0001-71</t>
+  </si>
+  <si>
+    <t>19.378.769/0001-76</t>
+  </si>
+  <si>
+    <t>12.648.327/0001-53</t>
+  </si>
+  <si>
+    <t>33.200.049/0001-47</t>
+  </si>
+  <si>
+    <t>02.932.074/0001-91</t>
+  </si>
+  <si>
+    <t>43.185.362/0001-07</t>
+  </si>
+  <si>
+    <t>60.543.816/0001-93</t>
+  </si>
+  <si>
+    <t>17.314.329/0001-20</t>
+  </si>
+  <si>
+    <t>56.720.428/0001-63</t>
+  </si>
+  <si>
+    <t>76.627.504/0001-06</t>
+  </si>
+  <si>
+    <t>38.456.921/0001-36</t>
+  </si>
+  <si>
+    <t>82.901.000/0001-27</t>
+  </si>
+  <si>
+    <t>01.548.981/0001-79</t>
+  </si>
+  <si>
+    <t>61.156.113/0001-75</t>
+  </si>
+  <si>
+    <t>92.791.243/0001-03</t>
+  </si>
+  <si>
+    <t>33.376.989/0001-91</t>
+  </si>
+  <si>
+    <t>60.872.504/0001-23</t>
+  </si>
+  <si>
+    <t>61.532.644/0001-15</t>
+  </si>
+  <si>
+    <t>02.635.522/0001-95</t>
+  </si>
+  <si>
+    <t>02.916.265/0001-60</t>
+  </si>
+  <si>
+    <t>08.294.224/0001-65</t>
+  </si>
+  <si>
+    <t>33.035.536/0001-00</t>
+  </si>
+  <si>
+    <t>87.456.562/0001-22</t>
+  </si>
+  <si>
+    <t>52.548.435/0001-79</t>
+  </si>
+  <si>
+    <t>82.640.558/0001-04</t>
+  </si>
+  <si>
+    <t>91.983.056/0001-69</t>
+  </si>
+  <si>
+    <t>89.637.490/0001-45</t>
+  </si>
+  <si>
+    <t>13.270.520/0001-66</t>
+  </si>
+  <si>
+    <t>26.462.693/0001-28</t>
+  </si>
+  <si>
+    <t>03.378.521/0001-75</t>
+  </si>
+  <si>
+    <t>49.669.856/0001-43</t>
+  </si>
+  <si>
+    <t>16.670.085/0001-55</t>
+  </si>
+  <si>
+    <t>10.215.988/0001-60</t>
+  </si>
+  <si>
+    <t>02.351.877/0001-52</t>
+  </si>
+  <si>
+    <t>09.041.168/0001-10</t>
+  </si>
+  <si>
+    <t>42.278.291/0001-24</t>
+  </si>
+  <si>
+    <t>33.014.556/0001-96</t>
+  </si>
+  <si>
+    <t>61.189.288/0001-89</t>
+  </si>
+  <si>
+    <t>96.418.264/0218-02</t>
+  </si>
+  <si>
+    <t>92.754.738/0001-62</t>
+  </si>
+  <si>
+    <t>08.078.847/0001-09</t>
+  </si>
+  <si>
+    <t>89.463.822/0001-12</t>
+  </si>
+  <si>
+    <t>07.206.816/0001-15</t>
+  </si>
+  <si>
+    <t>47.960.950/0001-21</t>
+  </si>
+  <si>
+    <t>60.476.884/0001-87</t>
+  </si>
+  <si>
+    <t>61.065.298/0001-02</t>
+  </si>
+  <si>
+    <t>88.611.835/0001-29</t>
+  </si>
+  <si>
+    <t>03.853.896/0001-40</t>
+  </si>
+  <si>
+    <t>16.676.520/0001-59</t>
+  </si>
+  <si>
+    <t>60.730.348/0001-66</t>
+  </si>
+  <si>
+    <t>14.110.585/0001-07</t>
+  </si>
+  <si>
+    <t>12.181.987/0001-77</t>
+  </si>
+  <si>
+    <t>33.040.601/0001-87</t>
+  </si>
+  <si>
+    <t>04.821.041/0001-08</t>
+  </si>
+  <si>
+    <t>80.227.184/0001-66</t>
+  </si>
+  <si>
+    <t>92.690.783/0001-09</t>
+  </si>
+  <si>
+    <t>85.778.074/0001-06</t>
+  </si>
+  <si>
+    <t>86.375.425/0001-09</t>
+  </si>
+  <si>
+    <t>27.093.558/0001-15</t>
+  </si>
+  <si>
+    <t>17.161.241/0001-15</t>
+  </si>
+  <si>
+    <t>67.620.377/0001-14</t>
+  </si>
+  <si>
+    <t>90.076.886/0001-40</t>
+  </si>
+  <si>
+    <t>07.882.930/0001-65</t>
+  </si>
+  <si>
+    <t>02.762.115/0001-49</t>
+  </si>
+  <si>
+    <t>31.553.627/0001-01</t>
+  </si>
+  <si>
+    <t>56.992.423/0001-90</t>
+  </si>
+  <si>
+    <t>33.102.476/0001-92</t>
+  </si>
+  <si>
+    <t>09.083.175/0001-84</t>
+  </si>
+  <si>
+    <t>12.049.631/0001-84</t>
+  </si>
+  <si>
+    <t>21.314.559/0001-66</t>
+  </si>
+  <si>
+    <t>01.417.222/0001-77</t>
+  </si>
+  <si>
+    <t>08.343.492/0001-20</t>
+  </si>
+  <si>
+    <t>59.717.553/0001-02</t>
+  </si>
+  <si>
+    <t>07.816.890/0001-53</t>
+  </si>
+  <si>
+    <t>88.610.191/0001-54</t>
+  </si>
+  <si>
+    <t>32.785.497/0001-97</t>
+  </si>
+  <si>
+    <t>33.938.119/0001-69</t>
+  </si>
+  <si>
+    <t>01.083.200/0001-18</t>
+  </si>
+  <si>
+    <t>10.139.870/0001-08</t>
+  </si>
+  <si>
+    <t>60.884.319/0001-59</t>
+  </si>
+  <si>
+    <t>19.853.511/0001-84</t>
+  </si>
+  <si>
+    <t>18.236.120/0001-58</t>
+  </si>
+  <si>
+    <t>51.128.999/0001-90</t>
+  </si>
+  <si>
+    <t>09.114.805/0001-30</t>
+  </si>
+  <si>
+    <t>58.119.199/0001-51</t>
+  </si>
+  <si>
+    <t>76.535.764/0001-43</t>
+  </si>
+  <si>
+    <t>42.500.384/0001-51</t>
+  </si>
+  <si>
+    <t>12.104.241/0004-02</t>
+  </si>
+  <si>
+    <t>11.421.994/0001-36</t>
+  </si>
+  <si>
+    <t>09.112.685/0001-32</t>
+  </si>
+  <si>
+    <t>20.258.278/0001-70</t>
+  </si>
+  <si>
+    <t>02.365.069/0001-44</t>
+  </si>
+  <si>
+    <t>06.626.253/0001-51</t>
+  </si>
+  <si>
+    <t>92.693.019/0001-89</t>
+  </si>
+  <si>
+    <t>60.398.369/0004-79</t>
+  </si>
+  <si>
+    <t>01.938.783/0001-11</t>
+  </si>
+  <si>
+    <t>02.950.811/0001-89</t>
+  </si>
+  <si>
+    <t>33.000.167/0001-01</t>
+  </si>
+  <si>
+    <t>03.342.704/0001-30</t>
+  </si>
+  <si>
+    <t>10.629.105/0001-68</t>
+  </si>
+  <si>
+    <t>88.613.658/0001-10</t>
+  </si>
+  <si>
+    <t>18.328.118/0001-09</t>
+  </si>
+  <si>
+    <t>62.144.175/0001-20</t>
+  </si>
+  <si>
+    <t>24.230.275/0001-80</t>
+  </si>
+  <si>
+    <t>51.928.174/0001-50</t>
+  </si>
+  <si>
+    <t>86.550.951/0001-50</t>
+  </si>
+  <si>
+    <t>02.149.205/0001-69</t>
+  </si>
+  <si>
+    <t>83.475.913/0001-91</t>
+  </si>
+  <si>
+    <t>81.243.735/0001-48</t>
+  </si>
+  <si>
+    <t>18.593.815/0001-97</t>
+  </si>
+  <si>
+    <t>45.453.214/0001-51</t>
+  </si>
+  <si>
+    <t>11.992.680/0001-93</t>
+  </si>
+  <si>
+    <t>61.585.865/0001-51</t>
+  </si>
+  <si>
+    <t>33.453.598/0001-23</t>
+  </si>
+  <si>
+    <t>89.086.144/0001-16</t>
+  </si>
+  <si>
+    <t>91.333.666/0001-17</t>
+  </si>
+  <si>
+    <t>06.047.087/0001-39</t>
+  </si>
+  <si>
+    <t>61.584.140/0001-49</t>
+  </si>
+  <si>
+    <t>33.412.081/0001-96</t>
+  </si>
+  <si>
+    <t>08.534.605/0001-74</t>
+  </si>
+  <si>
+    <t>02.998.301/0001-81</t>
+  </si>
+  <si>
+    <t>67.010.660/0001-24</t>
+  </si>
+  <si>
+    <t>61.065.751/0001-80</t>
+  </si>
+  <si>
+    <t>02.387.241/0001-60</t>
+  </si>
+  <si>
+    <t>43.776.517/0001-80</t>
+  </si>
+  <si>
+    <t>87.547.428/0001-37</t>
+  </si>
+  <si>
+    <t>16.628.281/0001-61</t>
+  </si>
+  <si>
+    <t>76.484.013/0001-45</t>
+  </si>
+  <si>
+    <t>14.807.945/0001-24</t>
+  </si>
+  <si>
+    <t>21.255.567/0001-89</t>
+  </si>
+  <si>
+    <t>02.762.121/0001-04</t>
+  </si>
+  <si>
+    <t>29.780.061/0001-09</t>
+  </si>
+  <si>
+    <t>51.466.860/0001-56</t>
+  </si>
+  <si>
+    <t>62.002.886/0001-60</t>
+  </si>
+  <si>
+    <t>60.500.139/0001-26</t>
+  </si>
+  <si>
+    <t>84.693.183/0001-68</t>
+  </si>
+  <si>
+    <t>01.599.101/0001-93</t>
+  </si>
+  <si>
+    <t>04.986.320/0001-13</t>
+  </si>
+  <si>
+    <t>07.415.333/0001-20</t>
+  </si>
+  <si>
+    <t>04.065.791/0001-99</t>
+  </si>
+  <si>
+    <t>89.096.457/0001-55</t>
+  </si>
+  <si>
+    <t>07.594.978/0001-78</t>
+  </si>
+  <si>
+    <t>33.386.210/0001-19</t>
+  </si>
+  <si>
+    <t>07.718.269/0001-57</t>
+  </si>
+  <si>
+    <t>29.978.814/0001-87</t>
+  </si>
+  <si>
+    <t>16.404.287/0001-55</t>
+  </si>
+  <si>
+    <t>08.801.621/0001-86</t>
+  </si>
+  <si>
+    <t>07.859.971/0001-30</t>
+  </si>
+  <si>
+    <t>92.781.335/0001-02</t>
+  </si>
+  <si>
+    <t>09.295.063/0001-97</t>
+  </si>
+  <si>
+    <t>08.065.557/0001-12</t>
+  </si>
+  <si>
+    <t>33.111.246/0001-90</t>
+  </si>
+  <si>
+    <t>02.351.144/0001-18</t>
+  </si>
+  <si>
+    <t>82.636.986/0001-55</t>
+  </si>
+  <si>
+    <t>33.467.572/0001-34</t>
+  </si>
+  <si>
+    <t>00.336.701/0001-04</t>
+  </si>
+  <si>
+    <t>40.337.136/0001-06</t>
+  </si>
+  <si>
+    <t>02.421.421/0001-11</t>
+  </si>
+  <si>
+    <t>02.860.694/0001-62</t>
+  </si>
+  <si>
+    <t>53.113.791/0001-22</t>
+  </si>
+  <si>
+    <t>59.418.806/0001-47</t>
+  </si>
+  <si>
+    <t>26.345.998/0001-50</t>
+  </si>
+  <si>
+    <t>92.660.570/0001-26</t>
+  </si>
+  <si>
+    <t>08.811.643/0001-27</t>
+  </si>
+  <si>
+    <t>03.014.553/0001-91</t>
+  </si>
+  <si>
+    <t>15.115.504/0001-24</t>
+  </si>
+  <si>
+    <t>84.683.374/0001-49</t>
+  </si>
+  <si>
+    <t>33.256.439/0001-39</t>
+  </si>
+  <si>
+    <t>90.441.460/0001-48</t>
+  </si>
+  <si>
+    <t>02.255.187/0001-08</t>
+  </si>
+  <si>
+    <t>33.958.695/0001-78</t>
+  </si>
+  <si>
+    <t>60.894.730/0001-05</t>
+  </si>
+  <si>
+    <t>33.592.510/0001-54</t>
+  </si>
+  <si>
+    <t>33.113.309/0001-47</t>
+  </si>
+  <si>
+    <t>33.041.260/0652-90</t>
+  </si>
+  <si>
+    <t>34.274.233/0001-02</t>
+  </si>
+  <si>
+    <t>45.365.558/0001-09</t>
+  </si>
+  <si>
+    <t>33.839.910/0001-11</t>
+  </si>
+  <si>
+    <t>12.420.164/0001-57</t>
+  </si>
+  <si>
+    <t>67.571.414/0001-41</t>
+  </si>
+  <si>
+    <t>02.558.157/0001-62</t>
+  </si>
+  <si>
+    <t>50.926.955/0001-42</t>
+  </si>
+  <si>
+    <t>05.917.486/0001-40</t>
+  </si>
+  <si>
+    <t>84.429.695/0001-11</t>
+  </si>
+  <si>
+    <t>14.776.142/0001-50</t>
+  </si>
+  <si>
+    <t>84.683.671/0001-94</t>
+  </si>
+  <si>
+    <t>59.105.999/0001-86</t>
+  </si>
+  <si>
+    <t>05.721.735/0001-28</t>
+  </si>
+  <si>
+    <t>42.278.473/0001-03</t>
+  </si>
+  <si>
+    <t>33.228.024/0001-51</t>
+  </si>
+  <si>
+    <t>08.807.432/0001-10</t>
+  </si>
+  <si>
+    <t>24.241.659/0001-06</t>
+  </si>
+  <si>
+    <t>3R PETROLEUM OLEO E GAS S.A.</t>
+  </si>
+  <si>
+    <t>TRES TENTOS AGROINDUSTRIAL S.A.</t>
+  </si>
+  <si>
+    <t>ADM DO BRASIL LTDA0</t>
+  </si>
+  <si>
+    <t>CONST ADOLPHO LINDENBERG SA</t>
+  </si>
+  <si>
+    <t>Aeris Indústria e Com. de Equip. para Geração de Energia S.A.</t>
+  </si>
+  <si>
+    <t>AES BRASIL ENERGIA S.A.</t>
+  </si>
+  <si>
+    <t>Aes Tiete Energia S.A.</t>
+  </si>
+  <si>
+    <t>AFLUENTE TRANSMISSÃO DE ENERGIA ELETRICA S/A</t>
+  </si>
+  <si>
+    <t>AGROGALAXY PARTICIPACOES S.A.</t>
+  </si>
+  <si>
+    <t>AGROSB AGROPECUARIA S.A.0</t>
+  </si>
+  <si>
+    <t>FINANCEIRA ALFA S.A.- C.F.I</t>
+  </si>
+  <si>
+    <t>ALFA HOLDINGS SA</t>
+  </si>
+  <si>
+    <t>BANCO ALFA DE INVESTIMENTO SA</t>
+  </si>
+  <si>
+    <t>ALIANSCE SONAE SHOPPING CENTERS S.A.</t>
+  </si>
+  <si>
+    <t>SIDERURGICA J L ALIPERTI SA</t>
+  </si>
+  <si>
+    <t>CENTRO DE IMAGEM DIAGNÓSTICOS S.A.</t>
+  </si>
+  <si>
+    <t>Allied Tecnologia S.A.</t>
+  </si>
+  <si>
+    <t>ALPARGATAS SA</t>
+  </si>
+  <si>
+    <t>ALPER CONSULTORIA E CORRETORA DE SEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>ALPHAVILLE S.A.</t>
+  </si>
+  <si>
+    <t>ALUPAR INVESTIMENTO S/A</t>
+  </si>
+  <si>
+    <t>AMAGGI EXPORTACAO E IMPORTACAO LTDA</t>
+  </si>
+  <si>
+    <t>AMBEV S.A.</t>
+  </si>
+  <si>
+    <t>AMBIPAR PARTICIPAÇÕES E EMPREENDIMENTOS S.A.</t>
+  </si>
+  <si>
+    <t>AMPLA ENERGIA E SERVIÇOS S.A.</t>
+  </si>
+  <si>
+    <t>GAEC EDUCAÇÃO S.A.</t>
+  </si>
+  <si>
+    <t>AREZZO INDÚSTRIA E COMERCIO S/A</t>
+  </si>
+  <si>
+    <t>ARMAC LOCAÇÃO, LOGÍSTICA E SERVIÇOS S.A.</t>
+  </si>
+  <si>
+    <t>SENDAS DISTRIBUIDORA S.A.</t>
+  </si>
+  <si>
+    <t>ATMA PARTICIPAÇÕES S.A.</t>
+  </si>
+  <si>
+    <t>ATOM PARTICIPAÇÕES S.A – EM RECUPERAÇÃO JUDICIAL.</t>
+  </si>
+  <si>
+    <t>Avon Cosmeticos Ltda.</t>
+  </si>
+  <si>
+    <t>AZEVEDO &amp; TRAVASSOS SA</t>
+  </si>
+  <si>
+    <t>AZUL S.A.</t>
+  </si>
+  <si>
+    <t>B3 S.A.</t>
+  </si>
+  <si>
+    <t>BAHEMA SA</t>
+  </si>
+  <si>
+    <t>BANCO ABC BRASIL S/A</t>
+  </si>
+  <si>
+    <t>BANCO BMG S/A</t>
+  </si>
+  <si>
+    <t>BANCO BRADESCO SA</t>
+  </si>
+  <si>
+    <t>BANCO BTG PACTUAL S.A.</t>
+  </si>
+  <si>
+    <t>BANCO DA AMAZÔNIA S.A.</t>
+  </si>
+  <si>
+    <t>BRB-BANCO DE BRASILIA SA</t>
+  </si>
+  <si>
+    <t>BANCO DO BRASIL S.A.</t>
+  </si>
+  <si>
+    <t>BANCO DO NORDESTE DO BRASIL SA</t>
+  </si>
+  <si>
+    <t>BANCO INTER S.A.</t>
+  </si>
+  <si>
+    <t>BCO MERCANTIL INVS SA</t>
+  </si>
+  <si>
+    <t>BANCO MERCANTIL BRASIL SA</t>
+  </si>
+  <si>
+    <t>BANCO MODAL S.A.</t>
+  </si>
+  <si>
+    <t>BANCO PAN S.A.</t>
+  </si>
+  <si>
+    <t>BANCO SANTANDER (BRASIL) S.A.</t>
+  </si>
+  <si>
+    <t>BANCO ESTADO SERGIPE SA</t>
+  </si>
+  <si>
+    <t>BANESTES SA BANCO DO ESTADO DO ESPIRITO SANTO</t>
+  </si>
+  <si>
+    <t>BANCO DO ESTADO DO PARÁ S/A.</t>
+  </si>
+  <si>
+    <t>BANCO DO ESTADO DO RIO GRANDE DO SUL SA</t>
+  </si>
+  <si>
+    <t>BARDELLA SA INDS MECANICAS</t>
+  </si>
+  <si>
+    <t>BAUMER SA</t>
+  </si>
+  <si>
+    <t>BB SEGURIDADE PARTICIPAÇÕES S.A.</t>
+  </si>
+  <si>
+    <t>BELEM BIOENERGIA BRASIL S/A</t>
+  </si>
+  <si>
+    <t>BEMOBI MOBILE TECH S.A.</t>
+  </si>
+  <si>
+    <t>BIOMM SA</t>
+  </si>
+  <si>
+    <t>BIOSEV S.A</t>
+  </si>
+  <si>
+    <t>BK BRASIL OPERAÇÃO E ASSESSORIA A RESTAURANTES S.A.</t>
+  </si>
+  <si>
+    <t>BLAU FARMACEUTICA S.A.</t>
+  </si>
+  <si>
+    <t>INDS J B DUARTE SA</t>
+  </si>
+  <si>
+    <t>BOA SAFRA SEMENTES S.A.</t>
+  </si>
+  <si>
+    <t>BOA VISTA SERVICOS S.A.</t>
+  </si>
+  <si>
+    <t>BOMBRIL SA</t>
+  </si>
+  <si>
+    <t>BR PROPERTIES S.A.</t>
+  </si>
+  <si>
+    <t>BRADESPAR S/A</t>
+  </si>
+  <si>
+    <t>BRASIL BIO FUELS S.A.</t>
+  </si>
+  <si>
+    <t>Brasil Brokers S.A.</t>
+  </si>
+  <si>
+    <t>BRASILAGRO CIA BRAS DE PROP AGRICOLAS</t>
+  </si>
+  <si>
+    <t>BRASKEM S.A.</t>
+  </si>
+  <si>
+    <t>BRF S.A.</t>
+  </si>
+  <si>
+    <t>BRISANET PARTICIPAÇÕES S.A.</t>
+  </si>
+  <si>
+    <t>BR MALLS PARTICIPAÇOES S.A.</t>
+  </si>
+  <si>
+    <t>BUNGE ALIMENTOS S/A</t>
+  </si>
+  <si>
+    <t>C&amp;A Modas S.A.</t>
+  </si>
+  <si>
+    <t>CAIXA SEGURIDADE PARTICIPAÇÕES S.A.</t>
+  </si>
+  <si>
+    <t>CAMBUCI SA</t>
+  </si>
+  <si>
+    <t>CAMIL ALIMENTOS S.A.</t>
+  </si>
+  <si>
+    <t>CSU CARDSYSTEM S/A</t>
+  </si>
+  <si>
+    <t>CARGILL AGRICOLA SA</t>
+  </si>
+  <si>
+    <t>ATACADÃO S.A.</t>
+  </si>
+  <si>
+    <t>CIA CAT. DE ÁGUAS E SANEAMENTO – CASAN</t>
+  </si>
+  <si>
+    <t>COMPANHIA BRASILEIRA DE ALUMINIO S.A.</t>
+  </si>
+  <si>
+    <t>COMPANHIA ENERGÉTICA DE BRASÍLIA – CEB</t>
+  </si>
+  <si>
+    <t>COMPANHIA DE FIACAO E TECIDOS CEDRO E CACHOEIRA</t>
+  </si>
+  <si>
+    <t>CIA ESTADUAL DE DISTRIBUIÇÃO DE ENERGIA ELETRICA</t>
+  </si>
+  <si>
+    <t>CIA ESTADUAL DE GERACAO E TRANSMISSAO DE ENERGIA ELETRICA</t>
+  </si>
+  <si>
+    <t>CENTRAIS ELETRICAS DE SANTA CATARINA S.A</t>
+  </si>
+  <si>
+    <t>COMPANHIA CELG DE PARTICIPAÇÕES</t>
+  </si>
+  <si>
+    <t>CIA ENERGÉTICA DE PERNAMBUCO – CELPE</t>
+  </si>
+  <si>
+    <t>CEMEPE INVESTIMENTOS SA</t>
+  </si>
+  <si>
+    <t>CIA ENERG MINAS GERAIS – CEMIG</t>
+  </si>
+  <si>
+    <t>CESP – COMPANHIA ENERGÉTICA DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>CIA SEGUROS ALIANCA BAHIA</t>
+  </si>
+  <si>
+    <t>CIELO S.A.</t>
+  </si>
+  <si>
+    <t>CITROSUCO S/A AGROINDUSTRIA</t>
+  </si>
+  <si>
+    <t>CLEAR SALE S.A.</t>
+  </si>
+  <si>
+    <t>CIA ELETRICIDADE DA BAHIA</t>
+  </si>
+  <si>
+    <t>CIA ENERG CEARA – COELCE</t>
+  </si>
+  <si>
+    <t>COGNA EDUCAÇÃO</t>
+  </si>
+  <si>
+    <t>COMPANHIA DE GÁS DE SÃO PAULO – COMGÁS</t>
+  </si>
+  <si>
+    <t>CONSERVAS ODERICH SA</t>
+  </si>
+  <si>
+    <t>CONSORCIO ALFA DE ADMINISTRAÇÃO SA</t>
+  </si>
+  <si>
+    <t>CONSTRUTORA TENDA S/A</t>
+  </si>
+  <si>
+    <t>COMPANHIA DE SANEAMENTO DE MINAS GERAIS</t>
+  </si>
+  <si>
+    <t>COMPANHIA PARANAENSE DE ENERGIA</t>
+  </si>
+  <si>
+    <t>CORREA RIBEIRO SA COM IND</t>
+  </si>
+  <si>
+    <t>COSAN SA INDUSTRIA E COMERCIO</t>
+  </si>
+  <si>
+    <t>CIA ENERGÉTICA DO RIO GRANDE DO NORTE</t>
+  </si>
+  <si>
+    <t>CIA TECIDOS NORTE DE MINAS – COTEMINAS</t>
+  </si>
+  <si>
+    <t>CPFL ENERGIA SA</t>
+  </si>
+  <si>
+    <t>CR2 EMPREENDIMENTOS IMOBILIÁRIOS S/A</t>
+  </si>
+  <si>
+    <t>CRUZEIRO DO SUL EDUCACIONAL S.A.</t>
+  </si>
+  <si>
+    <t>CIA SIDERURGICA NACIONAL</t>
+  </si>
+  <si>
+    <t>CSN MINERACAO S.A.</t>
+  </si>
+  <si>
+    <t>CTEEP-CIA TRANSM ENERGIA ELÉTR. PAULISTA</t>
+  </si>
+  <si>
+    <t>CURY CONSTRUTORA E INCORPORADORA S.A.</t>
+  </si>
+  <si>
+    <t>Sucocitrico Cutrale Ltda</t>
+  </si>
+  <si>
+    <t>CVC BRASIL OPERADORA E AGÊNCIA DE VIAGENS S.A.</t>
+  </si>
+  <si>
+    <t>CYRELA BRAZIL REALTY SA EMPRS E PARTS</t>
+  </si>
+  <si>
+    <t>D1000 VAREJO FARMA PARTICIPACOES S.A.</t>
+  </si>
+  <si>
+    <t>DIAGNOSTICOS DA AMERICA SA</t>
+  </si>
+  <si>
+    <t>DESKTOP  SIGMANET COMUNICAÇÃO MULTIMÍDIA S.A.</t>
+  </si>
+  <si>
+    <t>DURATEX S.A.</t>
+  </si>
+  <si>
+    <t>DEXXOS PARTICIPACOES S.A.</t>
+  </si>
+  <si>
+    <t>DIMED SA DISTRIBUIDORA DE MEDICAMENTOS</t>
+  </si>
+  <si>
+    <t>DIRECIONAL ENGENHARIA SA</t>
+  </si>
+  <si>
+    <t>DOHLER S.A.</t>
+  </si>
+  <si>
+    <t>DOMMO ENERGIA S.A.</t>
+  </si>
+  <si>
+    <t>DOTZ S.A.</t>
+  </si>
+  <si>
+    <t>DTCOM – DIRECT TO COMPANY S.A.</t>
+  </si>
+  <si>
+    <t>ECORODOVIAS INFRAESTRUTURA E LOGÍSTICA S.A.</t>
+  </si>
+  <si>
+    <t>EDP ENERGIAS DO BRASIL S/A</t>
+  </si>
+  <si>
+    <t>ELECTRO AÇO ALTONA S/A</t>
+  </si>
+  <si>
+    <t>ELEKTRO ELETRICIDADE E SERVIÇOS S.A.</t>
+  </si>
+  <si>
+    <t>CENTRAIS ELETRICAS BRASILEIRAS SA</t>
+  </si>
+  <si>
+    <t>ELETROMIDIA S.A.</t>
+  </si>
+  <si>
+    <t>ELETROBRÁS PARTICIPAÇÕES S.A. – ELETROPAR</t>
+  </si>
+  <si>
+    <t>EMAE-EMP.METROPOLITANA ÁGUAS ENERGIA S.A</t>
+  </si>
+  <si>
+    <t>EMBPAR PARTICIPACOES S/A</t>
+  </si>
+  <si>
+    <t>EMBRAER S.A.</t>
+  </si>
+  <si>
+    <t>ENAUTA PARTICIPAÇÕES S.A.</t>
+  </si>
+  <si>
+    <t>EMP. NAC. CRÉDITO E PART. S.A. – ENCORPAR</t>
+  </si>
+  <si>
+    <t>ENERGISA SA</t>
+  </si>
+  <si>
+    <t>ENERGISA MATO GROSSO-DISTRIBUIDORA DE ENERGIA S/A</t>
+  </si>
+  <si>
+    <t>ENEVA S.A.</t>
+  </si>
+  <si>
+    <t>ENGIE BRASIL ENERGIA S.A.</t>
+  </si>
+  <si>
+    <t>ENJOEI.COM.BR ATIVIDADES DE INTERNET S.A.</t>
+  </si>
+  <si>
+    <t>EQUATORIAL ENERGIA S/A</t>
+  </si>
+  <si>
+    <t>EQUATORIAL PARÁ DISTRIBUIDORA DE ENERGIA S.A.</t>
+  </si>
+  <si>
+    <t>EQUATORIAL MARANHÃO DISTRIBUIDORA DE ENERGIA S.A.</t>
+  </si>
+  <si>
+    <t>MPM CORPOREOS S.A.</t>
+  </si>
+  <si>
+    <t>ALLPARK EMPREENDIMENTOS, PARTICIPAÇÕES E SERVIÇOS S.A.</t>
+  </si>
+  <si>
+    <t>MANUFATURA DE BRINQUEDOS ESTRELA SA</t>
+  </si>
+  <si>
+    <t>ETERNIT SA</t>
+  </si>
+  <si>
+    <t>EUCATEX SA IND E COMERCIO</t>
+  </si>
+  <si>
+    <t>EVEN CONSTRUTORA E INCORPORADORA S/A</t>
+  </si>
+  <si>
+    <t>EXCELSIOR ALIMENTOS SA.</t>
+  </si>
+  <si>
+    <t>EZ TEC EMPREEND. E PARTICIPAÇÕES S/A</t>
+  </si>
+  <si>
+    <t>FERROVIA CENTRO ATLANTICA SA</t>
+  </si>
+  <si>
+    <t>CIA FERRO LIGAS BAHIA FERBASA</t>
+  </si>
+  <si>
+    <t>FERTILIZANTES HERINGER SA</t>
+  </si>
+  <si>
+    <t>FLEURY SA</t>
+  </si>
+  <si>
+    <t>FINANSINOS S/A-CRÉDITO, FINAN. E INVEST.</t>
+  </si>
+  <si>
+    <t>FOCUS ENERGIA HOLDING PARTICIPAÇÕES S.A.</t>
+  </si>
+  <si>
+    <t>FRAS-LE SA</t>
+  </si>
+  <si>
+    <t>GAFISA SA</t>
+  </si>
+  <si>
+    <t>GENERAL SHOPPING BRASIL SA</t>
+  </si>
+  <si>
+    <t>GERDAU SA</t>
+  </si>
+  <si>
+    <t>GETNET ADQUIRÊNCIA E SERVIÇOS PARA MEIOS DE PAGAMENTO S.A.</t>
+  </si>
+  <si>
+    <t>GETNINJAS S.A.</t>
+  </si>
+  <si>
+    <t>GOL LINHAS AEREAS INTELIGENTES SA</t>
+  </si>
+  <si>
+    <t>GPS PARTICIPACOES E EMPREENDIMENTOS S.A.</t>
+  </si>
+  <si>
+    <t>GRAZZIOTIN SA</t>
+  </si>
+  <si>
+    <t>GRENDENE SA</t>
+  </si>
+  <si>
+    <t>BOM FUTURO AGRICOLA LTDA</t>
+  </si>
+  <si>
+    <t>BOTICARIO PRODUTOS DE BELEZA LTDA</t>
+  </si>
+  <si>
+    <t>CCR S.A.</t>
+  </si>
+  <si>
+    <t>HORITA EMPREENDIMENTOS AGRICOLAS LTDA</t>
+  </si>
+  <si>
+    <t>GRUPO MATEUS S.A.</t>
+  </si>
+  <si>
+    <t>COMPANHIA BRASILEIRA DE DISTRIBUIÇÃO</t>
+  </si>
+  <si>
+    <t>GRUPO SBF S.A.</t>
+  </si>
+  <si>
+    <t>GRUPO DE MODA SOMA S.A.</t>
+  </si>
+  <si>
+    <t>VAMOS LOCACAO DE CAMINHOES, MAQUINAS E EQUIPAMENTOS S.A.</t>
+  </si>
+  <si>
+    <t>GUARARAPES CONFECÇÕES SA</t>
+  </si>
+  <si>
+    <t>COMPANHIIA HABITASUL DE PARTICIPAÇÕES</t>
+  </si>
+  <si>
+    <t>HAGA S.A. INDÚSTRIA E COMÉRCIO</t>
+  </si>
+  <si>
+    <t>HAPVIDA</t>
+  </si>
+  <si>
+    <t>HBR REALTY EMPREENDIMENTOS IMOBILIÁRIOS S.A.</t>
+  </si>
+  <si>
+    <t>HELBOR EMPREENDIMENTOS S/A</t>
+  </si>
+  <si>
+    <t>HERCULES S/A – FABRICA DE TALHERES</t>
+  </si>
+  <si>
+    <t>CIA HERING</t>
+  </si>
+  <si>
+    <t>INSTITUTO HERMES PARDINI S/A</t>
+  </si>
+  <si>
+    <t>HIDROVIAS DO BRASIL S.A.</t>
+  </si>
+  <si>
+    <t>HOTEIS OTHON SA</t>
+  </si>
+  <si>
+    <t>HYPERA S.A.</t>
+  </si>
+  <si>
+    <t>IGB ELETRÔNICA SA</t>
+  </si>
+  <si>
+    <t>IGUATEMI S.A.</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL MEAL COMPANY ALIMENTAÇÃO S.A.</t>
+  </si>
+  <si>
+    <t>INDÚSTRIAS ROMI S.A.</t>
+  </si>
+  <si>
+    <t>INEPAR SA IND E CONSTRUCOES</t>
+  </si>
+  <si>
+    <t>INFRACOMMERCE CXAAS S.A.</t>
+  </si>
+  <si>
+    <t>INTELBRAS S.A.</t>
+  </si>
+  <si>
+    <t>INVESTIMENTOS BEMGE S.A.</t>
+  </si>
+  <si>
+    <t>IOCHPE-MAXION SA</t>
+  </si>
+  <si>
+    <t>CELULOSE IRANI SA</t>
+  </si>
+  <si>
+    <t>IRB BRASIL RESSEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>ITAÚ UNIBANCO HOLDING S.A.</t>
+  </si>
+  <si>
+    <t>ITAÚSA – INVESTIMENTOS ITAÚ S.A.</t>
+  </si>
+  <si>
+    <t>JALLES MACHADO S.A.</t>
+  </si>
+  <si>
+    <t>JBS SA</t>
+  </si>
+  <si>
+    <t>JHSF PARTICIPAÇÕES SA</t>
+  </si>
+  <si>
+    <t>JOAO FORTES ENGENHARIA SA</t>
+  </si>
+  <si>
+    <t>JOSAPAR- JOAQUIM OLIVEIRA S/A PARTICIP</t>
+  </si>
+  <si>
+    <t>JSL S.A.</t>
+  </si>
+  <si>
+    <t>KARSTEN SA</t>
+  </si>
+  <si>
+    <t>KEPLER WEBER SA</t>
+  </si>
+  <si>
+    <t>KLABIN S.A.</t>
+  </si>
+  <si>
+    <t>KORA SAUDE PARTICIPACOES S.A.</t>
+  </si>
+  <si>
+    <t>LAVVI EMPREENDIMENTOS IMOBILIARIOS S.A.</t>
+  </si>
+  <si>
+    <t>LIGHT SA</t>
+  </si>
+  <si>
+    <t>RESTOQUE COMÉRCIO E CONFECÇÕES DE ROUPAS SA</t>
+  </si>
+  <si>
+    <t>LOCALIZA RENT A CAR SA</t>
+  </si>
+  <si>
+    <t>COMPANHIA DE LOCACAO DAS AMERICAS S.A.</t>
+  </si>
+  <si>
+    <t>LOCAWEB SERVIÇOS DE INTERNET S.A.</t>
+  </si>
+  <si>
+    <t>LOG COMMERCIAL PROPERTIES</t>
+  </si>
+  <si>
+    <t>LOG-IN LOGISTICA INTERMODAL SA</t>
+  </si>
+  <si>
+    <t>LOJAS AMERICANAS SA</t>
+  </si>
+  <si>
+    <t>MARISA LOJAS SA</t>
+  </si>
+  <si>
+    <t>LOJAS QUERO-QUERO S.A.</t>
+  </si>
+  <si>
+    <t>LOJAS RENNER SA</t>
+  </si>
+  <si>
+    <t>LPS BRASIL CONSULTORIA DE IMOVEIS S/A</t>
+  </si>
+  <si>
+    <t>LUPATECH S/A</t>
+  </si>
+  <si>
+    <t>M DIAS BRANCO SA IND E COM DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t>MAGAZINE LUIZA S.A.</t>
+  </si>
+  <si>
+    <t>MAHLE METAL LEVE S.A.</t>
+  </si>
+  <si>
+    <t>MANGELS INDUSTRIAL SA – EM RECUPERAÇÃO JUDICIAL</t>
+  </si>
+  <si>
+    <t>MARCOPOLO SA</t>
+  </si>
+  <si>
+    <t>MARFRIG GLOBAL FOODS SA</t>
+  </si>
+  <si>
+    <t>HOSPITAL MATER DEI S.A.</t>
+  </si>
+  <si>
+    <t>COMPANHIA MELHORAMENTOS DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>MÉLIUZ S.A.</t>
+  </si>
+  <si>
+    <t>MELNICK EVEN DESENVOLVIMENTO IMOBILIÁRIO S.A.</t>
+  </si>
+  <si>
+    <t>MERCANTIL DO BR FINC SA CFI</t>
+  </si>
+  <si>
+    <t>METALFRIO SOLUTIONS S/A</t>
+  </si>
+  <si>
+    <t>METALGRAFICA IGUACU SA</t>
+  </si>
+  <si>
+    <t>METALURGICA GERDAU SA</t>
+  </si>
+  <si>
+    <t>METALURGICA RIOSULENSE SA</t>
+  </si>
+  <si>
+    <t>METISA METALÚRGICA TIMBOENSE SA</t>
+  </si>
+  <si>
+    <t>MILLS ESTRUTURAS E SERVI?OS DE ENGENHARIA S/A</t>
+  </si>
+  <si>
+    <t>MINASMAQUINAS SA</t>
+  </si>
+  <si>
+    <t>MINERVA S/A</t>
+  </si>
+  <si>
+    <t>MINUPAR PARTICIPACOES SA</t>
+  </si>
+  <si>
+    <t>Mitre Realty Empreendimentos e Participações S.A.</t>
+  </si>
+  <si>
+    <t>MMX MINERAÇÃO E METÁLICOS S.A.</t>
+  </si>
+  <si>
+    <t>MOBLY S.A.</t>
+  </si>
+  <si>
+    <t>BICICLETAS MONARK SA</t>
+  </si>
+  <si>
+    <t>MONTEIRO ARANHA SA</t>
+  </si>
+  <si>
+    <t>MOSAICO TECNOLOGIA AO CONSUMIDOR S.A.</t>
+  </si>
+  <si>
+    <t>MOURA DUBEUX ENGENHARIA S/A</t>
+  </si>
+  <si>
+    <t>MOVIDA PARTICIPAÇÕES S.A.</t>
+  </si>
+  <si>
+    <t>MRS LOGÍSTICA S/A</t>
+  </si>
+  <si>
+    <t>MRV ENGENHARIA E PARTICIPAÇÕES S/A</t>
+  </si>
+  <si>
+    <t>MULTILASER INDUSTRIAL S.A.</t>
+  </si>
+  <si>
+    <t>MULTIPLAN EMP. IMOBILIARIOS S/A</t>
+  </si>
+  <si>
+    <t>MUNDIAL S.A – PRODUTOS DE CONSUMO</t>
+  </si>
+  <si>
+    <t>NATURA &amp; CO HOLDING S.A.</t>
+  </si>
+  <si>
+    <t>CIA. DISTRIB. DE GÁS DO RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t>NEOENERGIA S.A</t>
+  </si>
+  <si>
+    <t>NEOGRID PARTICIPACÕES S.A.</t>
+  </si>
+  <si>
+    <t>NORDON INDS METALURGICAS SA</t>
+  </si>
+  <si>
+    <t>NOTRE DAME INTERMEDICA PARTICIPACOES S.A.</t>
+  </si>
+  <si>
+    <t>Nu Pagamentos S. A.</t>
+  </si>
+  <si>
+    <t>NUTRIPLANT INDUSTRIA E COMÉRCIO S/A</t>
+  </si>
+  <si>
+    <t>OCEANPACT SERVIÇOS MARITIMOS S.A.</t>
+  </si>
+  <si>
+    <t>ODONTOPREV S/A</t>
+  </si>
+  <si>
+    <t>OI S.A.</t>
+  </si>
+  <si>
+    <t>ONCOCLÍNICAS DO BRASIL SERVIÇOS MÉDICOS S.A.</t>
+  </si>
+  <si>
+    <t>ORIZON VALORIZACAO DE RESIDUOS S.A.</t>
+  </si>
+  <si>
+    <t>OSX BRASIL S.A.</t>
+  </si>
+  <si>
+    <t>OURO FINO SAUDE ANIMAL PARTICIPACOES S.A.</t>
+  </si>
+  <si>
+    <t>PADTEC HOLDING S.A.</t>
+  </si>
+  <si>
+    <t>EMPREENDIMENTOS PAGUE MENOS S.A.</t>
+  </si>
+  <si>
+    <t>PANATLANTICA SA</t>
+  </si>
+  <si>
+    <t>PARANAPANEMA SA</t>
+  </si>
+  <si>
+    <t>CIA DE PARTICIPAÇÕES ALIANÇA DA BAHIA</t>
+  </si>
+  <si>
+    <t>PDG REALTY SA EMPREENDIMENTOS E PARTS</t>
+  </si>
+  <si>
+    <t>PETRÓLEO BRASILEIRO S.A. – PETROBRAS</t>
+  </si>
+  <si>
+    <t>PETRORECONCAVO S.A.</t>
+  </si>
+  <si>
+    <t>PETRO RIO S.A.</t>
+  </si>
+  <si>
+    <t>PETTENATI SA IND TEXTIL</t>
+  </si>
+  <si>
+    <t>PET CENTER COMÉRCIO E PARTICIPAÇÕES S.A</t>
+  </si>
+  <si>
+    <t>BANCO PINE S/A</t>
+  </si>
+  <si>
+    <t>PLANO &amp; PLANO DESENVOLVIMENTO IMOBILIARIO LTDA</t>
+  </si>
+  <si>
+    <t>PLASCAR PARTICIPAÇÕES INDUSTRIAIS S.A</t>
+  </si>
+  <si>
+    <t>POMIFRUTAS S/A</t>
+  </si>
+  <si>
+    <t>PORTO SEGURO SA</t>
+  </si>
+  <si>
+    <t>PBG S/A</t>
+  </si>
+  <si>
+    <t>POSITIVO TECNOLOGIA S.A.</t>
+  </si>
+  <si>
+    <t>PRINER SERVIÇOS INDUSTRIAIS S.A.</t>
+  </si>
+  <si>
+    <t>PROFARMA DISTRIB. PRODUTOS FARMACEUTICOS</t>
+  </si>
+  <si>
+    <t>QUALICORP S.A.</t>
+  </si>
+  <si>
+    <t>RAIA DROGASIL S.A.</t>
+  </si>
+  <si>
+    <t>RAÍZEN COMBUSTÍVEIS S.A</t>
+  </si>
+  <si>
+    <t>RANDON S.A. IMPLEMENTOS E PARTICIPAÇÕES</t>
+  </si>
+  <si>
+    <t>RECRUSUL SA</t>
+  </si>
+  <si>
+    <t>REDE D OR SÃO LUIZ S.A.</t>
+  </si>
+  <si>
+    <t>REDE ENERGIA S.A.</t>
+  </si>
+  <si>
+    <t>REFINARIA PET MANGUINHOS SA</t>
+  </si>
+  <si>
+    <t>RENOVA ENERGIA S/A</t>
+  </si>
+  <si>
+    <t>RIO PARANAPANEMA ENERGIA S.A.</t>
+  </si>
+  <si>
+    <t>RNI NEGOCIOS IMOBILIARIOS S.A.</t>
+  </si>
+  <si>
+    <t>ROSSI RESIDENCIAL SA</t>
+  </si>
+  <si>
+    <t>RUMO S.A.</t>
+  </si>
+  <si>
+    <t>CIA SANEAMENTO BÁSICO ESTADO SÃO PAULO</t>
+  </si>
+  <si>
+    <t>Vinicola Salton S.a</t>
+  </si>
+  <si>
+    <t>Samarco Mineracao Sa Em Recuperacao Judicial</t>
+  </si>
+  <si>
+    <t>CIA. DE SANEAMENTO DO PARANÁ – SANEPAR</t>
+  </si>
+  <si>
+    <t>SANSUY SA INDÚSTRIA DE PLASTICOS</t>
+  </si>
+  <si>
+    <t>CIA TECIDOS SANTANENSE</t>
+  </si>
+  <si>
+    <t>SANTOS BRASIL PARTICIPAÇÕES S.A.</t>
+  </si>
+  <si>
+    <t>SÃO CARLOS EMPREENDS E PARTICIPAÇÕES S.A</t>
+  </si>
+  <si>
+    <t>SÃO MARTINHO SA</t>
+  </si>
+  <si>
+    <t>SÃO PAULO TURISMO S. A.</t>
+  </si>
+  <si>
+    <t>SARAIVA SA LIVREIROS EDITORES</t>
+  </si>
+  <si>
+    <t>SCHULZ SA</t>
+  </si>
+  <si>
+    <t>SEQUOIA LOGÍSTICA E TRANSPORTES S.A.</t>
+  </si>
+  <si>
+    <t>SER EDUCACIONAL S.A.</t>
+  </si>
+  <si>
+    <t>SIMPAR S.A.</t>
+  </si>
+  <si>
+    <t>SINQUIA S.A.</t>
+  </si>
+  <si>
+    <t>SLC AGRICOLA SA</t>
+  </si>
+  <si>
+    <t>SMARTFIT ESCOLA DE GINÁSTICA E DANÇA S.A.</t>
+  </si>
+  <si>
+    <t>SONDOTECNICA ENGENHARIA DE SOLOS S/A.</t>
+  </si>
+  <si>
+    <t>SPRINGS GLOBAL PARTICIPAÇÕES S/A</t>
+  </si>
+  <si>
+    <t>SUL AMERICA S/A</t>
+  </si>
+  <si>
+    <t>SUZANO PAPEL E CELULOSE S.A.</t>
+  </si>
+  <si>
+    <t>CYRELA COMMERCIAL PROPERTIES SA EMP PART</t>
+  </si>
+  <si>
+    <t>TRANSMISSORA ALIANÇA DE ENERGIA ELÉTRICA S.A.</t>
+  </si>
+  <si>
+    <t>TAURUS S.A.</t>
+  </si>
+  <si>
+    <t>TECHNOS S.A.</t>
+  </si>
+  <si>
+    <t>TECNISA S/A</t>
+  </si>
+  <si>
+    <t>TECNOSOLO S/A</t>
+  </si>
+  <si>
+    <t>TEGMA GESTÃO LOGÍSTICA SA</t>
+  </si>
+  <si>
+    <t>TEKA TECELAGEM KUEHNRICH SA</t>
+  </si>
+  <si>
+    <t>TEKNO S.A. INDÚSTRIA E COMÉRCIO</t>
+  </si>
+  <si>
+    <t>TELEC. BRASILEIRAS S.A. – TELEBRÁS</t>
+  </si>
+  <si>
+    <t>TERRA SANTA PROPRIEDADES AGRICOLAS S.A.</t>
+  </si>
+  <si>
+    <t>TIM S.A.</t>
+  </si>
+  <si>
+    <t>T4F ENTRETENIMENTO S.A.</t>
+  </si>
+  <si>
+    <t>TOTVS S.A</t>
+  </si>
+  <si>
+    <t>TRACK &amp; FIELD CO S.A.</t>
+  </si>
+  <si>
+    <t>TC TRADERS CLUB S.A.</t>
+  </si>
+  <si>
+    <t>TREVISA INVESTIMENTOS SA</t>
+  </si>
+  <si>
+    <t>TRISUL S/A</t>
+  </si>
+  <si>
+    <t>TPI – TRIUNFO PARTICIPACOES E INVESTIMENTOS S.A.</t>
+  </si>
+  <si>
+    <t>CRISTAL PIGMENTOS DO BRASIL S.A.</t>
+  </si>
+  <si>
+    <t>TUPY SA</t>
+  </si>
+  <si>
+    <t>ULTRAPAR PARTICIPAÇÕES SA</t>
+  </si>
+  <si>
+    <t>UNICASA INDÚSTRIA DE MÓVEIS S.A.</t>
+  </si>
+  <si>
+    <t>UNIFIQUE TELECOMUNICACOES S.A.</t>
+  </si>
+  <si>
+    <t>UNIPAR CARBOCLORO S.A.</t>
+  </si>
+  <si>
+    <t>USINAS SIDERURGICAS DE MINAS GERAIS SA</t>
+  </si>
+  <si>
+    <t>VALE S.A.</t>
+  </si>
+  <si>
+    <t>VALID SOLUÇÕES E SERVIÇOS DE SEGURANÇA EM MEIOS DE PAGAMENTO E IDENTIFICAÇÃO S.A.</t>
+  </si>
+  <si>
+    <t>GRUPO CASAS BAHIA S.A.</t>
+  </si>
+  <si>
+    <t>VIBRA ENERGIA S.A</t>
+  </si>
+  <si>
+    <t>VIA VAREJO S.A.</t>
+  </si>
+  <si>
+    <t>VITTIA FERTILIZANTES E BIOLOGICOS S.A.</t>
+  </si>
+  <si>
+    <t>VIVARA PARTICIPACOES S.A.</t>
+  </si>
+  <si>
+    <t>CM HOSPITALAR S.A.</t>
+  </si>
+  <si>
+    <t>VIVER INCORPORADORA E CONSTRUTORA S/A</t>
+  </si>
+  <si>
+    <t>TELEFÔNICA BRASIL S.A.</t>
+  </si>
+  <si>
+    <t>VULCABRAS AZALEIA S.A.</t>
+  </si>
+  <si>
+    <t>LIVETECH DA BAHIA INDÚSTRIA E COMÉRCIO S.A.</t>
+  </si>
+  <si>
+    <t>WEG SA</t>
+  </si>
+  <si>
+    <t>WESTWING COMÉRCIO VAREJISTA S.A.</t>
+  </si>
+  <si>
+    <t>WETZEL S.A.</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL S.A</t>
+  </si>
+  <si>
+    <t>WILSON SONS LIMITED</t>
+  </si>
+  <si>
+    <t>WIZ SOLUÇÕES E CORRETAGEM DE SEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>WLM INDÚSTRIA E COMÉRCIO S.A.</t>
+  </si>
+  <si>
+    <t>ESTACIO PARTICIPAÇÕES SA</t>
+  </si>
+  <si>
     <t>Venture Capital Participações e Investimentos S.A.</t>
-  </si>
-  <si>
-    <t>12.091.809/0001-55</t>
-  </si>
-  <si>
-    <t>94.813.102/0001-70</t>
-  </si>
-  <si>
-    <t>02.003.402/0001-75</t>
-  </si>
-  <si>
-    <t>61.022.042/0001-18</t>
-  </si>
-  <si>
-    <t>12.528.708/0001-07</t>
-  </si>
-  <si>
-    <t>37.663.076/0001-07</t>
-  </si>
-  <si>
-    <t>04.128.563/0001-10</t>
-  </si>
-  <si>
-    <t>10.338.320/0001-00</t>
-  </si>
-  <si>
-    <t>21.240.146/0001-84</t>
-  </si>
-  <si>
-    <t>07.336.695/0001-26</t>
-  </si>
-  <si>
-    <t>17.167.412/0001-13</t>
-  </si>
-  <si>
-    <t>17.167.396/0001-69</t>
-  </si>
-  <si>
-    <t>60.770.336/0001-65</t>
-  </si>
-  <si>
-    <t>05.878.397/0001-32</t>
-  </si>
-  <si>
-    <t>61.156.931/0001-78</t>
-  </si>
-  <si>
-    <t>42.771.949/0001-35</t>
-  </si>
-  <si>
-    <t>20.247.322/0001-47</t>
-  </si>
-  <si>
-    <t>61.079.117/0001-05</t>
-  </si>
-  <si>
-    <t>11.721.921/0001-60</t>
-  </si>
-  <si>
-    <t>16.811.931/0001-00</t>
-  </si>
-  <si>
-    <t>08.364.948/0001-38</t>
-  </si>
-  <si>
-    <t>77.294.254/0063-97</t>
-  </si>
-  <si>
-    <t>07.526.557/0001-00</t>
-  </si>
-  <si>
-    <t>12.648.266/0001-24</t>
-  </si>
-  <si>
-    <t>33.050.071/0001-58</t>
-  </si>
-  <si>
-    <t>09.288.252/0001-32</t>
-  </si>
-  <si>
-    <t>16.590.234/0001-76</t>
-  </si>
-  <si>
-    <t>00.242.184/0001-04</t>
-  </si>
-  <si>
-    <t>06.057.223/0001-71</t>
-  </si>
-  <si>
-    <t>04.032.433/0001-80</t>
-  </si>
-  <si>
-    <t>00.359.742/0001-08</t>
-  </si>
-  <si>
-    <t>56.991.441/0001-57</t>
-  </si>
-  <si>
-    <t>61.351.532/0001-68</t>
-  </si>
-  <si>
-    <t>09.305.994/0001-29</t>
-  </si>
-  <si>
-    <t>09.346.601/0001-25</t>
-  </si>
-  <si>
-    <t>45.987.245/0001-92</t>
-  </si>
-  <si>
-    <t>28.195.667/0001-06</t>
-  </si>
-  <si>
-    <t>61.186.680/0001-74</t>
-  </si>
-  <si>
-    <t>60.746.948/0001-12</t>
-  </si>
-  <si>
-    <t>30.306.294/0001-45</t>
-  </si>
-  <si>
-    <t>04.902.979/0001-44</t>
-  </si>
-  <si>
-    <t>00.000.208/0001-00</t>
-  </si>
-  <si>
-    <t>00.000.000/0001-91</t>
-  </si>
-  <si>
-    <t>07.237.373/0001-20</t>
-  </si>
-  <si>
-    <t>00.416.968/0001-01</t>
-  </si>
-  <si>
-    <t>34.169.557/0001-72</t>
-  </si>
-  <si>
-    <t>17.184.037/0001-10</t>
-  </si>
-  <si>
-    <t>30.723.886/0001-62</t>
-  </si>
-  <si>
-    <t>59.285.411/0001-13</t>
-  </si>
-  <si>
-    <t>90.400.888/0001-42</t>
-  </si>
-  <si>
-    <t>13.009.717/0001-46</t>
-  </si>
-  <si>
-    <t>28.127.603/0001-78</t>
-  </si>
-  <si>
-    <t>04.913.711/0001-08</t>
-  </si>
-  <si>
-    <t>92.702.067/0001-96</t>
-  </si>
-  <si>
-    <t>60.851.615/0001-53</t>
-  </si>
-  <si>
-    <t>61.374.161/0001-30</t>
-  </si>
-  <si>
-    <t>17.344.597/0001-94</t>
-  </si>
-  <si>
-    <t>13.188.854/0001-95</t>
-  </si>
-  <si>
-    <t>09.042.817/0001-05</t>
-  </si>
-  <si>
-    <t>04.752.991/0001-10</t>
-  </si>
-  <si>
-    <t>15.527.906/0001-36</t>
-  </si>
-  <si>
-    <t>13.574.594/0001-96</t>
-  </si>
-  <si>
-    <t>58.430.828/0001-60</t>
-  </si>
-  <si>
-    <t>60.637.238/0001-54</t>
-  </si>
-  <si>
-    <t>10.807.374/0001-77</t>
-  </si>
-  <si>
-    <t>11.725.176/0001-27</t>
-  </si>
-  <si>
-    <t>50.564.053/0001-03</t>
-  </si>
-  <si>
-    <t>06.977.751/0001-49</t>
-  </si>
-  <si>
-    <t>03.847.461/0001-92</t>
-  </si>
-  <si>
-    <t>09.478.309/0006-70</t>
-  </si>
-  <si>
-    <t>08.613.550/0001-98</t>
-  </si>
-  <si>
-    <t>07.628.528/0001-59</t>
-  </si>
-  <si>
-    <t>42.150.391/0001-70</t>
-  </si>
-  <si>
-    <t>01.838.723/0001-27</t>
-  </si>
-  <si>
-    <t>19.796.586/0001-70</t>
-  </si>
-  <si>
-    <t>06.977.745/0001-91</t>
-  </si>
-  <si>
-    <t>84.046.101/0001-93</t>
-  </si>
-  <si>
-    <t>45.242.914/0001-05</t>
-  </si>
-  <si>
-    <t>22.543.331/0001-00</t>
-  </si>
-  <si>
-    <t>61.088.894/0001-08</t>
-  </si>
-  <si>
-    <t>64.904.295/0001-03</t>
-  </si>
-  <si>
-    <t>01.896.779/0001-38</t>
-  </si>
-  <si>
-    <t>60.498.706/0370-77</t>
-  </si>
-  <si>
-    <t>75.315.333/0001-09</t>
-  </si>
-  <si>
-    <t>82.508.433/0001-17</t>
-  </si>
-  <si>
-    <t>61.409.892/0001-73</t>
-  </si>
-  <si>
-    <t>00.070.698/0001-11</t>
-  </si>
-  <si>
-    <t>17.245.234/0001-00</t>
-  </si>
-  <si>
-    <t>08.467.115/0001-00</t>
-  </si>
-  <si>
-    <t>92.715.812/0001-31</t>
-  </si>
-  <si>
-    <t>83.878.892/0001-55</t>
-  </si>
-  <si>
-    <t>08.560.444/0001-93</t>
-  </si>
-  <si>
-    <t>10.835.932/0001-08</t>
-  </si>
-  <si>
-    <t>93.828.986/0001-73</t>
-  </si>
-  <si>
-    <t>17.155.730/0001-64</t>
-  </si>
-  <si>
-    <t>60.933.603/0001-78</t>
-  </si>
-  <si>
-    <t>15.144.017/0001-90</t>
-  </si>
-  <si>
-    <t>01.027.058/0001-91</t>
-  </si>
-  <si>
-    <t>33.010.786/0001-87</t>
-  </si>
-  <si>
-    <t>03.802.115/0001-98</t>
-  </si>
-  <si>
-    <t>15.139.629/0001-94</t>
-  </si>
-  <si>
-    <t>07.047.251/0001-70</t>
-  </si>
-  <si>
-    <t>02.800.026/0001-40</t>
-  </si>
-  <si>
-    <t>61.856.571/0001-17</t>
-  </si>
-  <si>
-    <t>97.191.902/0001-94</t>
-  </si>
-  <si>
-    <t>17.193.806/0001-46</t>
-  </si>
-  <si>
-    <t>71.476.527/0001-35</t>
-  </si>
-  <si>
-    <t>17.281.106/0001-03</t>
-  </si>
-  <si>
-    <t>76.483.817/0001-20</t>
-  </si>
-  <si>
-    <t>15.101.405/0001-93</t>
-  </si>
-  <si>
-    <t>50.746.577/0001-15</t>
-  </si>
-  <si>
-    <t>08.324.196/0001-81</t>
-  </si>
-  <si>
-    <t>22.677.520/0001-76</t>
-  </si>
-  <si>
-    <t>02.429.144/0001-93</t>
-  </si>
-  <si>
-    <t>07.820.907/0001-46</t>
-  </si>
-  <si>
-    <t>62.984.091/0001-02</t>
-  </si>
-  <si>
-    <t>33.042.730/0001-04</t>
-  </si>
-  <si>
-    <t>08.902.291/0001-15</t>
-  </si>
-  <si>
-    <t>02.998.611/0001-04</t>
-  </si>
-  <si>
-    <t>08.797.760/0001-83</t>
-  </si>
-  <si>
-    <t>61.649.810/0003-20</t>
-  </si>
-  <si>
-    <t>10.760.260/0001-19</t>
-  </si>
-  <si>
-    <t>73.178.600/0001-18</t>
-  </si>
-  <si>
-    <t>12.108.897/0001-50</t>
-  </si>
-  <si>
-    <t>61.486.650/0001-83</t>
-  </si>
-  <si>
-    <t>08.170.849/0001-15</t>
-  </si>
-  <si>
-    <t>97.837.181/0001-47</t>
-  </si>
-  <si>
-    <t>02.193.750/0001-52</t>
-  </si>
-  <si>
-    <t>92.665.611/0001-77</t>
-  </si>
-  <si>
-    <t>16.614.075/0001-00</t>
-  </si>
-  <si>
-    <t>84.683.408/0001-03</t>
-  </si>
-  <si>
-    <t>08.926.302/0001-05</t>
-  </si>
-  <si>
-    <t>18.174.270/0001-84</t>
-  </si>
-  <si>
-    <t>03.303.999/0001-36</t>
-  </si>
-  <si>
-    <t>04.149.454/0001-80</t>
-  </si>
-  <si>
-    <t>03.983.431/0001-03</t>
-  </si>
-  <si>
-    <t>82.643.537/0001-34</t>
-  </si>
-  <si>
-    <t>02.328.280/0001-97</t>
-  </si>
-  <si>
-    <t>00.001.180/0001-26</t>
-  </si>
-  <si>
-    <t>09.347.516/0001-81</t>
-  </si>
-  <si>
-    <t>01.104.937/0001-70</t>
-  </si>
-  <si>
-    <t>02.302.101/0001-42</t>
-  </si>
-  <si>
-    <t>42.331.462/0001-31</t>
-  </si>
-  <si>
-    <t>07.689.002/0001-89</t>
-  </si>
-  <si>
-    <t>11.669.021/0001-10</t>
-  </si>
-  <si>
-    <t>01.971.614/0001-83</t>
-  </si>
-  <si>
-    <t>00.864.214/0001-06</t>
-  </si>
-  <si>
-    <t>03.467.321/0001-99</t>
-  </si>
-  <si>
-    <t>04.423.567/0001-21</t>
-  </si>
-  <si>
-    <t>02.474.103/0001-19</t>
-  </si>
-  <si>
-    <t>16.922.038/0001-51</t>
-  </si>
-  <si>
-    <t>03.220.438/0001-73</t>
-  </si>
-  <si>
-    <t>04.895.728/0001-80</t>
-  </si>
-  <si>
-    <t>06.272.793/0001-84</t>
-  </si>
-  <si>
-    <t>26.659.061/0001-59</t>
-  </si>
-  <si>
-    <t>60.537.263/0001-66</t>
-  </si>
-  <si>
-    <t>61.082.004/0001-50</t>
-  </si>
-  <si>
-    <t>61.092.037/0001-81</t>
-  </si>
-  <si>
-    <t>56.643.018/0001-66</t>
-  </si>
-  <si>
-    <t>43.470.988/0001-65</t>
-  </si>
-  <si>
-    <t>95.426.862/0001-97</t>
-  </si>
-  <si>
-    <t>08.312.229/0001-73</t>
-  </si>
-  <si>
-    <t>00.924.429/0001-75</t>
-  </si>
-  <si>
-    <t>15.141.799/0001-03</t>
-  </si>
-  <si>
-    <t>22.266.175/0001-88</t>
-  </si>
-  <si>
-    <t>60.840.055/0001-31</t>
-  </si>
-  <si>
-    <t>91.669.747/0001-92</t>
-  </si>
-  <si>
-    <t>26.735.020/0001-02</t>
-  </si>
-  <si>
-    <t>88.610.126/0001-29</t>
-  </si>
-  <si>
-    <t>01.545.826/0001-07</t>
-  </si>
-  <si>
-    <t>08.764.621/0001-53</t>
-  </si>
-  <si>
-    <t>33.611.500/0001-19</t>
-  </si>
-  <si>
-    <t>10.440.482/0001-54</t>
-  </si>
-  <si>
-    <t>14.127.813/0001-51</t>
-  </si>
-  <si>
-    <t>06.164.253/0001-87</t>
-  </si>
-  <si>
-    <t>09.229.201/0001-30</t>
-  </si>
-  <si>
-    <t>92.012.467/0001-70</t>
-  </si>
-  <si>
-    <t>89.850.341/0001-60</t>
-  </si>
-  <si>
-    <t>10.425.282/0001-22</t>
-  </si>
-  <si>
-    <t>11.137.051/0001-86</t>
-  </si>
-  <si>
-    <t>02.846.056/0001-97</t>
-  </si>
-  <si>
-    <t>10.239.544/0001-64</t>
-  </si>
-  <si>
-    <t>24.990.777/0001-09</t>
-  </si>
-  <si>
-    <t>47.508.411/0001-56</t>
-  </si>
-  <si>
-    <t>13.217.485/0001-11</t>
-  </si>
-  <si>
-    <t>10.285.590/0001-08</t>
-  </si>
-  <si>
-    <t>23.373.000/0001-32</t>
-  </si>
-  <si>
-    <t>08.402.943/0001-52</t>
-  </si>
-  <si>
-    <t>87.762.563/0001-03</t>
-  </si>
-  <si>
-    <t>30.540.991/0001-66</t>
-  </si>
-  <si>
-    <t>05.197.443/0001-38</t>
-  </si>
-  <si>
-    <t>14.785.152/0001-51</t>
-  </si>
-  <si>
-    <t>49.263.189/0001-02</t>
-  </si>
-  <si>
-    <t>92.749.225/0001-63</t>
-  </si>
-  <si>
-    <t>78.876.950/0001-71</t>
-  </si>
-  <si>
-    <t>19.378.769/0001-76</t>
-  </si>
-  <si>
-    <t>12.648.327/0001-53</t>
-  </si>
-  <si>
-    <t>33.200.049/0001-47</t>
-  </si>
-  <si>
-    <t>02.932.074/0001-91</t>
-  </si>
-  <si>
-    <t>43.185.362/0001-07</t>
-  </si>
-  <si>
-    <t>60.543.816/0001-93</t>
-  </si>
-  <si>
-    <t>17.314.329/0001-20</t>
-  </si>
-  <si>
-    <t>56.720.428/0001-63</t>
-  </si>
-  <si>
-    <t>76.627.504/0001-06</t>
-  </si>
-  <si>
-    <t>38.456.921/0001-36</t>
-  </si>
-  <si>
-    <t>82.901.000/0001-27</t>
-  </si>
-  <si>
-    <t>01.548.981/0001-79</t>
-  </si>
-  <si>
-    <t>61.156.113/0001-75</t>
-  </si>
-  <si>
-    <t>92.791.243/0001-03</t>
-  </si>
-  <si>
-    <t>33.376.989/0001-91</t>
-  </si>
-  <si>
-    <t>60.872.504/0001-23</t>
-  </si>
-  <si>
-    <t>61.532.644/0001-15</t>
-  </si>
-  <si>
-    <t>02.635.522/0001-95</t>
-  </si>
-  <si>
-    <t>02.916.265/0001-60</t>
-  </si>
-  <si>
-    <t>08.294.224/0001-65</t>
-  </si>
-  <si>
-    <t>33.035.536/0001-00</t>
-  </si>
-  <si>
-    <t>87.456.562/0001-22</t>
-  </si>
-  <si>
-    <t>52.548.435/0001-79</t>
-  </si>
-  <si>
-    <t>82.640.558/0001-04</t>
-  </si>
-  <si>
-    <t>91.983.056/0001-69</t>
-  </si>
-  <si>
-    <t>89.637.490/0001-45</t>
-  </si>
-  <si>
-    <t>13.270.520/0001-66</t>
-  </si>
-  <si>
-    <t>26.462.693/0001-28</t>
-  </si>
-  <si>
-    <t>03.378.521/0001-75</t>
-  </si>
-  <si>
-    <t>49.669.856/0001-43</t>
-  </si>
-  <si>
-    <t>16.670.085/0001-55</t>
-  </si>
-  <si>
-    <t>10.215.988/0001-60</t>
-  </si>
-  <si>
-    <t>02.351.877/0001-52</t>
-  </si>
-  <si>
-    <t>09.041.168/0001-10</t>
-  </si>
-  <si>
-    <t>42.278.291/0001-24</t>
-  </si>
-  <si>
-    <t>33.014.556/0001-96</t>
-  </si>
-  <si>
-    <t>61.189.288/0001-89</t>
-  </si>
-  <si>
-    <t>96.418.264/0218-02</t>
-  </si>
-  <si>
-    <t>92.754.738/0001-62</t>
-  </si>
-  <si>
-    <t>08.078.847/0001-09</t>
-  </si>
-  <si>
-    <t>89.463.822/0001-12</t>
-  </si>
-  <si>
-    <t>07.206.816/0001-15</t>
-  </si>
-  <si>
-    <t>47.960.950/0001-21</t>
-  </si>
-  <si>
-    <t>60.476.884/0001-87</t>
-  </si>
-  <si>
-    <t>61.065.298/0001-02</t>
-  </si>
-  <si>
-    <t>88.611.835/0001-29</t>
-  </si>
-  <si>
-    <t>03.853.896/0001-40</t>
-  </si>
-  <si>
-    <t>16.676.520/0001-59</t>
-  </si>
-  <si>
-    <t>60.730.348/0001-66</t>
-  </si>
-  <si>
-    <t>14.110.585/0001-07</t>
-  </si>
-  <si>
-    <t>12.181.987/0001-77</t>
-  </si>
-  <si>
-    <t>33.040.601/0001-87</t>
-  </si>
-  <si>
-    <t>04.821.041/0001-08</t>
-  </si>
-  <si>
-    <t>80.227.184/0001-66</t>
-  </si>
-  <si>
-    <t>92.690.783/0001-09</t>
-  </si>
-  <si>
-    <t>85.778.074/0001-06</t>
-  </si>
-  <si>
-    <t>86.375.425/0001-09</t>
-  </si>
-  <si>
-    <t>27.093.558/0001-15</t>
-  </si>
-  <si>
-    <t>17.161.241/0001-15</t>
-  </si>
-  <si>
-    <t>67.620.377/0001-14</t>
-  </si>
-  <si>
-    <t>90.076.886/0001-40</t>
-  </si>
-  <si>
-    <t>07.882.930/0001-65</t>
-  </si>
-  <si>
-    <t>02.762.115/0001-49</t>
-  </si>
-  <si>
-    <t>31.553.627/0001-01</t>
-  </si>
-  <si>
-    <t>56.992.423/0001-90</t>
-  </si>
-  <si>
-    <t>33.102.476/0001-92</t>
-  </si>
-  <si>
-    <t>09.083.175/0001-84</t>
-  </si>
-  <si>
-    <t>12.049.631/0001-84</t>
-  </si>
-  <si>
-    <t>21.314.559/0001-66</t>
-  </si>
-  <si>
-    <t>01.417.222/0001-77</t>
-  </si>
-  <si>
-    <t>08.343.492/0001-20</t>
-  </si>
-  <si>
-    <t>59.717.553/0001-02</t>
-  </si>
-  <si>
-    <t>07.816.890/0001-53</t>
-  </si>
-  <si>
-    <t>88.610.191/0001-54</t>
-  </si>
-  <si>
-    <t>32.785.497/0001-97</t>
-  </si>
-  <si>
-    <t>33.938.119/0001-69</t>
-  </si>
-  <si>
-    <t>01.083.200/0001-18</t>
-  </si>
-  <si>
-    <t>10.139.870/0001-08</t>
-  </si>
-  <si>
-    <t>60.884.319/0001-59</t>
-  </si>
-  <si>
-    <t>19.853.511/0001-84</t>
-  </si>
-  <si>
-    <t>18.236.120/0001-58</t>
-  </si>
-  <si>
-    <t>51.128.999/0001-90</t>
-  </si>
-  <si>
-    <t>09.114.805/0001-30</t>
-  </si>
-  <si>
-    <t>58.119.199/0001-51</t>
-  </si>
-  <si>
-    <t>76.535.764/0001-43</t>
-  </si>
-  <si>
-    <t>42.500.384/0001-51</t>
-  </si>
-  <si>
-    <t>12.104.241/0004-02</t>
-  </si>
-  <si>
-    <t>11.421.994/0001-36</t>
-  </si>
-  <si>
-    <t>09.112.685/0001-32</t>
-  </si>
-  <si>
-    <t>20.258.278/0001-70</t>
-  </si>
-  <si>
-    <t>02.365.069/0001-44</t>
-  </si>
-  <si>
-    <t>06.626.253/0001-51</t>
-  </si>
-  <si>
-    <t>92.693.019/0001-89</t>
-  </si>
-  <si>
-    <t>60.398.369/0004-79</t>
-  </si>
-  <si>
-    <t>01.938.783/0001-11</t>
-  </si>
-  <si>
-    <t>02.950.811/0001-89</t>
-  </si>
-  <si>
-    <t>33.000.167/0001-01</t>
-  </si>
-  <si>
-    <t>03.342.704/0001-30</t>
-  </si>
-  <si>
-    <t>10.629.105/0001-68</t>
-  </si>
-  <si>
-    <t>88.613.658/0001-10</t>
-  </si>
-  <si>
-    <t>18.328.118/0001-09</t>
-  </si>
-  <si>
-    <t>62.144.175/0001-20</t>
-  </si>
-  <si>
-    <t>24.230.275/0001-80</t>
-  </si>
-  <si>
-    <t>51.928.174/0001-50</t>
-  </si>
-  <si>
-    <t>86.550.951/0001-50</t>
-  </si>
-  <si>
-    <t>02.149.205/0001-69</t>
-  </si>
-  <si>
-    <t>83.475.913/0001-91</t>
-  </si>
-  <si>
-    <t>81.243.735/0001-48</t>
-  </si>
-  <si>
-    <t>18.593.815/0001-97</t>
-  </si>
-  <si>
-    <t>45.453.214/0001-51</t>
-  </si>
-  <si>
-    <t>11.992.680/0001-93</t>
-  </si>
-  <si>
-    <t>61.585.865/0001-51</t>
-  </si>
-  <si>
-    <t>33.453.598/0001-23</t>
-  </si>
-  <si>
-    <t>89.086.144/0001-16</t>
-  </si>
-  <si>
-    <t>91.333.666/0001-17</t>
-  </si>
-  <si>
-    <t>06.047.087/0001-39</t>
-  </si>
-  <si>
-    <t>61.584.140/0001-49</t>
-  </si>
-  <si>
-    <t>33.412.081/0001-96</t>
-  </si>
-  <si>
-    <t>08.534.605/0001-74</t>
-  </si>
-  <si>
-    <t>02.998.301/0001-81</t>
-  </si>
-  <si>
-    <t>67.010.660/0001-24</t>
-  </si>
-  <si>
-    <t>61.065.751/0001-80</t>
-  </si>
-  <si>
-    <t>02.387.241/0001-60</t>
-  </si>
-  <si>
-    <t>43.776.517/0001-80</t>
-  </si>
-  <si>
-    <t>87.547.428/0001-37</t>
-  </si>
-  <si>
-    <t>16.628.281/0001-61</t>
-  </si>
-  <si>
-    <t>76.484.013/0001-45</t>
-  </si>
-  <si>
-    <t>14.807.945/0001-24</t>
-  </si>
-  <si>
-    <t>21.255.567/0001-89</t>
-  </si>
-  <si>
-    <t>02.762.121/0001-04</t>
-  </si>
-  <si>
-    <t>29.780.061/0001-09</t>
-  </si>
-  <si>
-    <t>51.466.860/0001-56</t>
-  </si>
-  <si>
-    <t>62.002.886/0001-60</t>
-  </si>
-  <si>
-    <t>60.500.139/0001-26</t>
-  </si>
-  <si>
-    <t>84.693.183/0001-68</t>
-  </si>
-  <si>
-    <t>01.599.101/0001-93</t>
-  </si>
-  <si>
-    <t>04.986.320/0001-13</t>
-  </si>
-  <si>
-    <t>07.415.333/0001-20</t>
-  </si>
-  <si>
-    <t>04.065.791/0001-99</t>
-  </si>
-  <si>
-    <t>89.096.457/0001-55</t>
-  </si>
-  <si>
-    <t>07.594.978/0001-78</t>
-  </si>
-  <si>
-    <t>33.386.210/0001-19</t>
-  </si>
-  <si>
-    <t>07.718.269/0001-57</t>
-  </si>
-  <si>
-    <t>29.978.814/0001-87</t>
-  </si>
-  <si>
-    <t>16.404.287/0001-55</t>
-  </si>
-  <si>
-    <t>08.801.621/0001-86</t>
-  </si>
-  <si>
-    <t>07.859.971/0001-30</t>
-  </si>
-  <si>
-    <t>92.781.335/0001-02</t>
-  </si>
-  <si>
-    <t>09.295.063/0001-97</t>
-  </si>
-  <si>
-    <t>08.065.557/0001-12</t>
-  </si>
-  <si>
-    <t>33.111.246/0001-90</t>
-  </si>
-  <si>
-    <t>02.351.144/0001-18</t>
-  </si>
-  <si>
-    <t>82.636.986/0001-55</t>
-  </si>
-  <si>
-    <t>33.467.572/0001-34</t>
-  </si>
-  <si>
-    <t>00.336.701/0001-04</t>
-  </si>
-  <si>
-    <t>40.337.136/0001-06</t>
-  </si>
-  <si>
-    <t>02.421.421/0001-11</t>
-  </si>
-  <si>
-    <t>02.860.694/0001-62</t>
-  </si>
-  <si>
-    <t>53.113.791/0001-22</t>
-  </si>
-  <si>
-    <t>59.418.806/0001-47</t>
-  </si>
-  <si>
-    <t>26.345.998/0001-50</t>
-  </si>
-  <si>
-    <t>92.660.570/0001-26</t>
-  </si>
-  <si>
-    <t>08.811.643/0001-27</t>
-  </si>
-  <si>
-    <t>03.014.553/0001-91</t>
-  </si>
-  <si>
-    <t>15.115.504/0001-24</t>
-  </si>
-  <si>
-    <t>84.683.374/0001-49</t>
-  </si>
-  <si>
-    <t>33.256.439/0001-39</t>
-  </si>
-  <si>
-    <t>90.441.460/0001-48</t>
-  </si>
-  <si>
-    <t>02.255.187/0001-08</t>
-  </si>
-  <si>
-    <t>33.958.695/0001-78</t>
-  </si>
-  <si>
-    <t>60.894.730/0001-05</t>
-  </si>
-  <si>
-    <t>33.592.510/0001-54</t>
-  </si>
-  <si>
-    <t>33.113.309/0001-47</t>
-  </si>
-  <si>
-    <t>33.041.260/0652-90</t>
-  </si>
-  <si>
-    <t>34.274.233/0001-02</t>
-  </si>
-  <si>
-    <t>45.365.558/0001-09</t>
-  </si>
-  <si>
-    <t>33.839.910/0001-11</t>
-  </si>
-  <si>
-    <t>12.420.164/0001-57</t>
-  </si>
-  <si>
-    <t>67.571.414/0001-41</t>
-  </si>
-  <si>
-    <t>02.558.157/0001-62</t>
-  </si>
-  <si>
-    <t>50.926.955/0001-42</t>
-  </si>
-  <si>
-    <t>05.917.486/0001-40</t>
-  </si>
-  <si>
-    <t>84.429.695/0001-11</t>
-  </si>
-  <si>
-    <t>14.776.142/0001-50</t>
-  </si>
-  <si>
-    <t>84.683.671/0001-94</t>
-  </si>
-  <si>
-    <t>59.105.999/0001-86</t>
-  </si>
-  <si>
-    <t>05.721.735/0001-28</t>
-  </si>
-  <si>
-    <t>42.278.473/0001-03</t>
-  </si>
-  <si>
-    <t>33.228.024/0001-51</t>
-  </si>
-  <si>
-    <t>08.807.432/0001-10</t>
-  </si>
-  <si>
-    <t>24.241.659/0001-06</t>
-  </si>
-  <si>
-    <t>3R PETROLEUM OLEO E GAS S.A.</t>
-  </si>
-  <si>
-    <t>TRES TENTOS AGROINDUSTRIAL S.A.</t>
-  </si>
-  <si>
-    <t>ADM DO BRASIL LTDA0</t>
-  </si>
-  <si>
-    <t>CONST ADOLPHO LINDENBERG SA</t>
-  </si>
-  <si>
-    <t>Aeris Indústria e Com. de Equip. para Geração de Energia S.A.</t>
-  </si>
-  <si>
-    <t>AES BRASIL ENERGIA S.A.</t>
-  </si>
-  <si>
-    <t>Aes Tiete Energia S.A.</t>
-  </si>
-  <si>
-    <t>AFLUENTE TRANSMISSÃO DE ENERGIA ELETRICA S/A</t>
-  </si>
-  <si>
-    <t>AGROGALAXY PARTICIPACOES S.A.</t>
-  </si>
-  <si>
-    <t>AGROSB AGROPECUARIA S.A.0</t>
-  </si>
-  <si>
-    <t>FINANCEIRA ALFA S.A.- C.F.I</t>
-  </si>
-  <si>
-    <t>ALFA HOLDINGS SA</t>
-  </si>
-  <si>
-    <t>BANCO ALFA DE INVESTIMENTO SA</t>
-  </si>
-  <si>
-    <t>ALIANSCE SONAE SHOPPING CENTERS S.A.</t>
-  </si>
-  <si>
-    <t>SIDERURGICA J L ALIPERTI SA</t>
-  </si>
-  <si>
-    <t>CENTRO DE IMAGEM DIAGNÓSTICOS S.A.</t>
-  </si>
-  <si>
-    <t>Allied Tecnologia S.A.</t>
-  </si>
-  <si>
-    <t>ALPARGATAS SA</t>
-  </si>
-  <si>
-    <t>ALPER CONSULTORIA E CORRETORA DE SEGUROS S.A.</t>
-  </si>
-  <si>
-    <t>ALPHAVILLE S.A.</t>
-  </si>
-  <si>
-    <t>ALUPAR INVESTIMENTO S/A</t>
-  </si>
-  <si>
-    <t>AMAGGI EXPORTACAO E IMPORTACAO LTDA</t>
-  </si>
-  <si>
-    <t>AMBEV S.A.</t>
-  </si>
-  <si>
-    <t>AMBIPAR PARTICIPAÇÕES E EMPREENDIMENTOS S.A.</t>
-  </si>
-  <si>
-    <t>AMPLA ENERGIA E SERVIÇOS S.A.</t>
-  </si>
-  <si>
-    <t>GAEC EDUCAÇÃO S.A.</t>
-  </si>
-  <si>
-    <t>AREZZO INDÚSTRIA E COMERCIO S/A</t>
-  </si>
-  <si>
-    <t>ARMAC LOCAÇÃO, LOGÍSTICA E SERVIÇOS S.A.</t>
-  </si>
-  <si>
-    <t>SENDAS DISTRIBUIDORA S.A.</t>
-  </si>
-  <si>
-    <t>ATMA PARTICIPAÇÕES S.A.</t>
-  </si>
-  <si>
-    <t>ATOM PARTICIPAÇÕES S.A – EM RECUPERAÇÃO JUDICIAL.</t>
-  </si>
-  <si>
-    <t>Avon Cosmeticos Ltda.</t>
-  </si>
-  <si>
-    <t>AZEVEDO &amp; TRAVASSOS SA</t>
-  </si>
-  <si>
-    <t>AZUL S.A.</t>
-  </si>
-  <si>
-    <t>B3 S.A.</t>
-  </si>
-  <si>
-    <t>BAHEMA SA</t>
-  </si>
-  <si>
-    <t>BANCO ABC BRASIL S/A</t>
-  </si>
-  <si>
-    <t>BANCO BMG S/A</t>
-  </si>
-  <si>
-    <t>BANCO BRADESCO SA</t>
-  </si>
-  <si>
-    <t>BANCO BTG PACTUAL S.A.</t>
-  </si>
-  <si>
-    <t>BANCO DA AMAZÔNIA S.A.</t>
-  </si>
-  <si>
-    <t>BRB-BANCO DE BRASILIA SA</t>
-  </si>
-  <si>
-    <t>BANCO DO BRASIL S.A.</t>
-  </si>
-  <si>
-    <t>BANCO DO NORDESTE DO BRASIL SA</t>
-  </si>
-  <si>
-    <t>BANCO INTER S.A.</t>
-  </si>
-  <si>
-    <t>BCO MERCANTIL INVS SA</t>
-  </si>
-  <si>
-    <t>BANCO MERCANTIL BRASIL SA</t>
-  </si>
-  <si>
-    <t>BANCO MODAL S.A.</t>
-  </si>
-  <si>
-    <t>BANCO PAN S.A.</t>
-  </si>
-  <si>
-    <t>BANCO SANTANDER (BRASIL) S.A.</t>
-  </si>
-  <si>
-    <t>BANCO ESTADO SERGIPE SA</t>
-  </si>
-  <si>
-    <t>BANESTES SA BANCO DO ESTADO DO ESPIRITO SANTO</t>
-  </si>
-  <si>
-    <t>BANCO DO ESTADO DO PARÁ S/A.</t>
-  </si>
-  <si>
-    <t>BANCO DO ESTADO DO RIO GRANDE DO SUL SA</t>
-  </si>
-  <si>
-    <t>BARDELLA SA INDS MECANICAS</t>
-  </si>
-  <si>
-    <t>BAUMER SA</t>
-  </si>
-  <si>
-    <t>BB SEGURIDADE PARTICIPAÇÕES S.A.</t>
-  </si>
-  <si>
-    <t>BELEM BIOENERGIA BRASIL S/A</t>
-  </si>
-  <si>
-    <t>BEMOBI MOBILE TECH S.A.</t>
-  </si>
-  <si>
-    <t>BIOMM SA</t>
-  </si>
-  <si>
-    <t>BIOSEV S.A</t>
-  </si>
-  <si>
-    <t>BK BRASIL OPERAÇÃO E ASSESSORIA A RESTAURANTES S.A.</t>
-  </si>
-  <si>
-    <t>BLAU FARMACEUTICA S.A.</t>
-  </si>
-  <si>
-    <t>INDS J B DUARTE SA</t>
-  </si>
-  <si>
-    <t>BOA SAFRA SEMENTES S.A.</t>
-  </si>
-  <si>
-    <t>BOA VISTA SERVICOS S.A.</t>
-  </si>
-  <si>
-    <t>BOMBRIL SA</t>
-  </si>
-  <si>
-    <t>BR PROPERTIES S.A.</t>
-  </si>
-  <si>
-    <t>BRADESPAR S/A</t>
-  </si>
-  <si>
-    <t>BRASIL BIO FUELS S.A.</t>
-  </si>
-  <si>
-    <t>Brasil Brokers S.A.</t>
-  </si>
-  <si>
-    <t>BRASILAGRO CIA BRAS DE PROP AGRICOLAS</t>
-  </si>
-  <si>
-    <t>BRASKEM S.A.</t>
-  </si>
-  <si>
-    <t>BRF S.A.</t>
-  </si>
-  <si>
-    <t>BRISANET PARTICIPAÇÕES S.A.</t>
-  </si>
-  <si>
-    <t>BR MALLS PARTICIPAÇOES S.A.</t>
-  </si>
-  <si>
-    <t>BUNGE ALIMENTOS S/A</t>
-  </si>
-  <si>
-    <t>C&amp;A Modas S.A.</t>
-  </si>
-  <si>
-    <t>CAIXA SEGURIDADE PARTICIPAÇÕES S.A.</t>
-  </si>
-  <si>
-    <t>CAMBUCI SA</t>
-  </si>
-  <si>
-    <t>CAMIL ALIMENTOS S.A.</t>
-  </si>
-  <si>
-    <t>CSU CARDSYSTEM S/A</t>
-  </si>
-  <si>
-    <t>CARGILL AGRICOLA SA</t>
-  </si>
-  <si>
-    <t>ATACADÃO S.A.</t>
-  </si>
-  <si>
-    <t>CIA CAT. DE ÁGUAS E SANEAMENTO – CASAN</t>
-  </si>
-  <si>
-    <t>COMPANHIA BRASILEIRA DE ALUMINIO S.A.</t>
-  </si>
-  <si>
-    <t>COMPANHIA ENERGÉTICA DE BRASÍLIA – CEB</t>
-  </si>
-  <si>
-    <t>COMPANHIA DE FIACAO E TECIDOS CEDRO E CACHOEIRA</t>
-  </si>
-  <si>
-    <t>CIA ESTADUAL DE DISTRIBUIÇÃO DE ENERGIA ELETRICA</t>
-  </si>
-  <si>
-    <t>CIA ESTADUAL DE GERACAO E TRANSMISSAO DE ENERGIA ELETRICA</t>
-  </si>
-  <si>
-    <t>CENTRAIS ELETRICAS DE SANTA CATARINA S.A</t>
-  </si>
-  <si>
-    <t>COMPANHIA CELG DE PARTICIPAÇÕES</t>
-  </si>
-  <si>
-    <t>CIA ENERGÉTICA DE PERNAMBUCO – CELPE</t>
-  </si>
-  <si>
-    <t>CEMEPE INVESTIMENTOS SA</t>
-  </si>
-  <si>
-    <t>CIA ENERG MINAS GERAIS – CEMIG</t>
-  </si>
-  <si>
-    <t>CESP – COMPANHIA ENERGÉTICA DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>CIA SEGUROS ALIANCA BAHIA</t>
-  </si>
-  <si>
-    <t>CIELO S.A.</t>
-  </si>
-  <si>
-    <t>CITROSUCO S/A AGROINDUSTRIA</t>
-  </si>
-  <si>
-    <t>CLEAR SALE S.A.</t>
-  </si>
-  <si>
-    <t>CIA ELETRICIDADE DA BAHIA</t>
-  </si>
-  <si>
-    <t>CIA ENERG CEARA – COELCE</t>
-  </si>
-  <si>
-    <t>COGNA EDUCAÇÃO</t>
-  </si>
-  <si>
-    <t>COMPANHIA DE GÁS DE SÃO PAULO – COMGÁS</t>
-  </si>
-  <si>
-    <t>CONSERVAS ODERICH SA</t>
-  </si>
-  <si>
-    <t>CONSORCIO ALFA DE ADMINISTRAÇÃO SA</t>
-  </si>
-  <si>
-    <t>CONSTRUTORA TENDA S/A</t>
-  </si>
-  <si>
-    <t>COMPANHIA DE SANEAMENTO DE MINAS GERAIS</t>
-  </si>
-  <si>
-    <t>COMPANHIA PARANAENSE DE ENERGIA</t>
-  </si>
-  <si>
-    <t>CORREA RIBEIRO SA COM IND</t>
-  </si>
-  <si>
-    <t>COSAN SA INDUSTRIA E COMERCIO</t>
-  </si>
-  <si>
-    <t>CIA ENERGÉTICA DO RIO GRANDE DO NORTE</t>
-  </si>
-  <si>
-    <t>CIA TECIDOS NORTE DE MINAS – COTEMINAS</t>
-  </si>
-  <si>
-    <t>CPFL ENERGIA SA</t>
-  </si>
-  <si>
-    <t>CR2 EMPREENDIMENTOS IMOBILIÁRIOS S/A</t>
-  </si>
-  <si>
-    <t>CRUZEIRO DO SUL EDUCACIONAL S.A.</t>
-  </si>
-  <si>
-    <t>CIA SIDERURGICA NACIONAL</t>
-  </si>
-  <si>
-    <t>CSN MINERACAO S.A.</t>
-  </si>
-  <si>
-    <t>CTEEP-CIA TRANSM ENERGIA ELÉTR. PAULISTA</t>
-  </si>
-  <si>
-    <t>CURY CONSTRUTORA E INCORPORADORA S.A.</t>
-  </si>
-  <si>
-    <t>Sucocitrico Cutrale Ltda</t>
-  </si>
-  <si>
-    <t>CVC BRASIL OPERADORA E AGÊNCIA DE VIAGENS S.A.</t>
-  </si>
-  <si>
-    <t>CYRELA BRAZIL REALTY SA EMPRS E PARTS</t>
-  </si>
-  <si>
-    <t>D1000 VAREJO FARMA PARTICIPACOES S.A.</t>
-  </si>
-  <si>
-    <t>DIAGNOSTICOS DA AMERICA SA</t>
-  </si>
-  <si>
-    <t>DESKTOP  SIGMANET COMUNICAÇÃO MULTIMÍDIA S.A.</t>
-  </si>
-  <si>
-    <t>DURATEX S.A.</t>
-  </si>
-  <si>
-    <t>DEXXOS PARTICIPACOES S.A.</t>
-  </si>
-  <si>
-    <t>DIMED SA DISTRIBUIDORA DE MEDICAMENTOS</t>
-  </si>
-  <si>
-    <t>DIRECIONAL ENGENHARIA SA</t>
-  </si>
-  <si>
-    <t>DOHLER S.A.</t>
-  </si>
-  <si>
-    <t>DOMMO ENERGIA S.A.</t>
-  </si>
-  <si>
-    <t>DOTZ S.A.</t>
-  </si>
-  <si>
-    <t>DTCOM – DIRECT TO COMPANY S.A.</t>
-  </si>
-  <si>
-    <t>ECORODOVIAS INFRAESTRUTURA E LOGÍSTICA S.A.</t>
-  </si>
-  <si>
-    <t>EDP ENERGIAS DO BRASIL S/A</t>
-  </si>
-  <si>
-    <t>ELECTRO AÇO ALTONA S/A</t>
-  </si>
-  <si>
-    <t>ELEKTRO ELETRICIDADE E SERVIÇOS S.A.</t>
-  </si>
-  <si>
-    <t>CENTRAIS ELETRICAS BRASILEIRAS SA</t>
-  </si>
-  <si>
-    <t>ELETROMIDIA S.A.</t>
-  </si>
-  <si>
-    <t>ELETROBRÁS PARTICIPAÇÕES S.A. – ELETROPAR</t>
-  </si>
-  <si>
-    <t>EMAE-EMP.METROPOLITANA ÁGUAS ENERGIA S.A</t>
-  </si>
-  <si>
-    <t>EMBPAR PARTICIPACOES S/A</t>
-  </si>
-  <si>
-    <t>EMBRAER S.A.</t>
-  </si>
-  <si>
-    <t>ENAUTA PARTICIPAÇÕES S.A.</t>
-  </si>
-  <si>
-    <t>EMP. NAC. CRÉDITO E PART. S.A. – ENCORPAR</t>
-  </si>
-  <si>
-    <t>ENERGISA SA</t>
-  </si>
-  <si>
-    <t>ENERGISA MATO GROSSO-DISTRIBUIDORA DE ENERGIA S/A</t>
-  </si>
-  <si>
-    <t>ENEVA S.A.</t>
-  </si>
-  <si>
-    <t>ENGIE BRASIL ENERGIA S.A.</t>
-  </si>
-  <si>
-    <t>ENJOEI.COM.BR ATIVIDADES DE INTERNET S.A.</t>
-  </si>
-  <si>
-    <t>EQUATORIAL ENERGIA S/A</t>
-  </si>
-  <si>
-    <t>EQUATORIAL PARÁ DISTRIBUIDORA DE ENERGIA S.A.</t>
-  </si>
-  <si>
-    <t>EQUATORIAL MARANHÃO DISTRIBUIDORA DE ENERGIA S.A.</t>
-  </si>
-  <si>
-    <t>MPM CORPOREOS S.A.</t>
-  </si>
-  <si>
-    <t>ALLPARK EMPREENDIMENTOS, PARTICIPAÇÕES E SERVIÇOS S.A.</t>
-  </si>
-  <si>
-    <t>MANUFATURA DE BRINQUEDOS ESTRELA SA</t>
-  </si>
-  <si>
-    <t>ETERNIT SA</t>
-  </si>
-  <si>
-    <t>EUCATEX SA IND E COMERCIO</t>
-  </si>
-  <si>
-    <t>EVEN CONSTRUTORA E INCORPORADORA S/A</t>
-  </si>
-  <si>
-    <t>EXCELSIOR ALIMENTOS SA.</t>
-  </si>
-  <si>
-    <t>EZ TEC EMPREEND. E PARTICIPAÇÕES S/A</t>
-  </si>
-  <si>
-    <t>FERROVIA CENTRO ATLANTICA SA</t>
-  </si>
-  <si>
-    <t>CIA FERRO LIGAS BAHIA FERBASA</t>
-  </si>
-  <si>
-    <t>FERTILIZANTES HERINGER SA</t>
-  </si>
-  <si>
-    <t>FLEURY SA</t>
-  </si>
-  <si>
-    <t>FINANSINOS S/A-CRÉDITO, FINAN. E INVEST.</t>
-  </si>
-  <si>
-    <t>FOCUS ENERGIA HOLDING PARTICIPAÇÕES S.A.</t>
-  </si>
-  <si>
-    <t>FRAS-LE SA</t>
-  </si>
-  <si>
-    <t>GAFISA SA</t>
-  </si>
-  <si>
-    <t>GENERAL SHOPPING BRASIL SA</t>
-  </si>
-  <si>
-    <t>GERDAU SA</t>
-  </si>
-  <si>
-    <t>GETNET ADQUIRÊNCIA E SERVIÇOS PARA MEIOS DE PAGAMENTO S.A.</t>
-  </si>
-  <si>
-    <t>GETNINJAS S.A.</t>
-  </si>
-  <si>
-    <t>GOL LINHAS AEREAS INTELIGENTES SA</t>
-  </si>
-  <si>
-    <t>GPS PARTICIPACOES E EMPREENDIMENTOS S.A.</t>
-  </si>
-  <si>
-    <t>GRAZZIOTIN SA</t>
-  </si>
-  <si>
-    <t>GRENDENE SA</t>
-  </si>
-  <si>
-    <t>BOM FUTURO AGRICOLA LTDA</t>
-  </si>
-  <si>
-    <t>BOTICARIO PRODUTOS DE BELEZA LTDA</t>
-  </si>
-  <si>
-    <t>CCR S.A.</t>
-  </si>
-  <si>
-    <t>HORITA EMPREENDIMENTOS AGRICOLAS LTDA</t>
-  </si>
-  <si>
-    <t>GRUPO MATEUS S.A.</t>
-  </si>
-  <si>
-    <t>COMPANHIA BRASILEIRA DE DISTRIBUIÇÃO</t>
-  </si>
-  <si>
-    <t>GRUPO SBF S.A.</t>
-  </si>
-  <si>
-    <t>GRUPO DE MODA SOMA S.A.</t>
-  </si>
-  <si>
-    <t>VAMOS LOCACAO DE CAMINHOES, MAQUINAS E EQUIPAMENTOS S.A.</t>
-  </si>
-  <si>
-    <t>GUARARAPES CONFECÇÕES SA</t>
-  </si>
-  <si>
-    <t>COMPANHIIA HABITASUL DE PARTICIPAÇÕES</t>
-  </si>
-  <si>
-    <t>HAGA S.A. INDÚSTRIA E COMÉRCIO</t>
-  </si>
-  <si>
-    <t>HAPVIDA</t>
-  </si>
-  <si>
-    <t>HBR REALTY EMPREENDIMENTOS IMOBILIÁRIOS S.A.</t>
-  </si>
-  <si>
-    <t>HELBOR EMPREENDIMENTOS S/A</t>
-  </si>
-  <si>
-    <t>HERCULES S/A – FABRICA DE TALHERES</t>
-  </si>
-  <si>
-    <t>CIA HERING</t>
-  </si>
-  <si>
-    <t>INSTITUTO HERMES PARDINI S/A</t>
-  </si>
-  <si>
-    <t>HIDROVIAS DO BRASIL S.A.</t>
-  </si>
-  <si>
-    <t>HOTEIS OTHON SA</t>
-  </si>
-  <si>
-    <t>HYPERA S.A.</t>
-  </si>
-  <si>
-    <t>IGB ELETRÔNICA SA</t>
-  </si>
-  <si>
-    <t>IGUATEMI S.A.</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL MEAL COMPANY ALIMENTAÇÃO S.A.</t>
-  </si>
-  <si>
-    <t>INDÚSTRIAS ROMI S.A.</t>
-  </si>
-  <si>
-    <t>INEPAR SA IND E CONSTRUCOES</t>
-  </si>
-  <si>
-    <t>INFRACOMMERCE CXAAS S.A.</t>
-  </si>
-  <si>
-    <t>INTELBRAS S.A.</t>
-  </si>
-  <si>
-    <t>INVESTIMENTOS BEMGE S.A.</t>
-  </si>
-  <si>
-    <t>IOCHPE-MAXION SA</t>
-  </si>
-  <si>
-    <t>CELULOSE IRANI SA</t>
-  </si>
-  <si>
-    <t>IRB BRASIL RESSEGUROS S.A.</t>
-  </si>
-  <si>
-    <t>ITAÚ UNIBANCO HOLDING S.A.</t>
-  </si>
-  <si>
-    <t>ITAÚSA – INVESTIMENTOS ITAÚ S.A.</t>
-  </si>
-  <si>
-    <t>JALLES MACHADO S.A.</t>
-  </si>
-  <si>
-    <t>JBS SA</t>
-  </si>
-  <si>
-    <t>JHSF PARTICIPAÇÕES SA</t>
-  </si>
-  <si>
-    <t>JOAO FORTES ENGENHARIA SA</t>
-  </si>
-  <si>
-    <t>JOSAPAR- JOAQUIM OLIVEIRA S/A PARTICIP</t>
-  </si>
-  <si>
-    <t>JSL S.A.</t>
-  </si>
-  <si>
-    <t>KARSTEN SA</t>
-  </si>
-  <si>
-    <t>KEPLER WEBER SA</t>
-  </si>
-  <si>
-    <t>KLABIN S.A.</t>
-  </si>
-  <si>
-    <t>KORA SAUDE PARTICIPACOES S.A.</t>
-  </si>
-  <si>
-    <t>LAVVI EMPREENDIMENTOS IMOBILIARIOS S.A.</t>
-  </si>
-  <si>
-    <t>LIGHT SA</t>
-  </si>
-  <si>
-    <t>RESTOQUE COMÉRCIO E CONFECÇÕES DE ROUPAS SA</t>
-  </si>
-  <si>
-    <t>LOCALIZA RENT A CAR SA</t>
-  </si>
-  <si>
-    <t>COMPANHIA DE LOCACAO DAS AMERICAS S.A.</t>
-  </si>
-  <si>
-    <t>LOCAWEB SERVIÇOS DE INTERNET S.A.</t>
-  </si>
-  <si>
-    <t>LOG COMMERCIAL PROPERTIES</t>
-  </si>
-  <si>
-    <t>LOG-IN LOGISTICA INTERMODAL SA</t>
-  </si>
-  <si>
-    <t>LOJAS AMERICANAS SA</t>
-  </si>
-  <si>
-    <t>MARISA LOJAS SA</t>
-  </si>
-  <si>
-    <t>LOJAS QUERO-QUERO S.A.</t>
-  </si>
-  <si>
-    <t>LOJAS RENNER SA</t>
-  </si>
-  <si>
-    <t>LPS BRASIL CONSULTORIA DE IMOVEIS S/A</t>
-  </si>
-  <si>
-    <t>LUPATECH S/A</t>
-  </si>
-  <si>
-    <t>M DIAS BRANCO SA IND E COM DE ALIMENTOS</t>
-  </si>
-  <si>
-    <t>MAGAZINE LUIZA S.A.</t>
-  </si>
-  <si>
-    <t>MAHLE METAL LEVE S.A.</t>
-  </si>
-  <si>
-    <t>MANGELS INDUSTRIAL SA – EM RECUPERAÇÃO JUDICIAL</t>
-  </si>
-  <si>
-    <t>MARCOPOLO SA</t>
-  </si>
-  <si>
-    <t>MARFRIG GLOBAL FOODS SA</t>
-  </si>
-  <si>
-    <t>HOSPITAL MATER DEI S.A.</t>
-  </si>
-  <si>
-    <t>COMPANHIA MELHORAMENTOS DE SÃO PAULO</t>
-  </si>
-  <si>
-    <t>MÉLIUZ S.A.</t>
-  </si>
-  <si>
-    <t>MELNICK EVEN DESENVOLVIMENTO IMOBILIÁRIO S.A.</t>
-  </si>
-  <si>
-    <t>MERCANTIL DO BR FINC SA CFI</t>
-  </si>
-  <si>
-    <t>METALFRIO SOLUTIONS S/A</t>
-  </si>
-  <si>
-    <t>METALGRAFICA IGUACU SA</t>
-  </si>
-  <si>
-    <t>METALURGICA GERDAU SA</t>
-  </si>
-  <si>
-    <t>METALURGICA RIOSULENSE SA</t>
-  </si>
-  <si>
-    <t>METISA METALÚRGICA TIMBOENSE SA</t>
-  </si>
-  <si>
-    <t>MILLS ESTRUTURAS E SERVI?OS DE ENGENHARIA S/A</t>
-  </si>
-  <si>
-    <t>MINASMAQUINAS SA</t>
-  </si>
-  <si>
-    <t>MINERVA S/A</t>
-  </si>
-  <si>
-    <t>MINUPAR PARTICIPACOES SA</t>
-  </si>
-  <si>
-    <t>Mitre Realty Empreendimentos e Participações S.A.</t>
-  </si>
-  <si>
-    <t>MMX MINERAÇÃO E METÁLICOS S.A.</t>
-  </si>
-  <si>
-    <t>MOBLY S.A.</t>
-  </si>
-  <si>
-    <t>BICICLETAS MONARK SA</t>
-  </si>
-  <si>
-    <t>MONTEIRO ARANHA SA</t>
-  </si>
-  <si>
-    <t>MOSAICO TECNOLOGIA AO CONSUMIDOR S.A.</t>
-  </si>
-  <si>
-    <t>MOURA DUBEUX ENGENHARIA S/A</t>
-  </si>
-  <si>
-    <t>MOVIDA PARTICIPAÇÕES S.A.</t>
-  </si>
-  <si>
-    <t>MRS LOGÍSTICA S/A</t>
-  </si>
-  <si>
-    <t>MRV ENGENHARIA E PARTICIPAÇÕES S/A</t>
-  </si>
-  <si>
-    <t>MULTILASER INDUSTRIAL S.A.</t>
-  </si>
-  <si>
-    <t>MULTIPLAN EMP. IMOBILIARIOS S/A</t>
-  </si>
-  <si>
-    <t>MUNDIAL S.A – PRODUTOS DE CONSUMO</t>
-  </si>
-  <si>
-    <t>NATURA &amp; CO HOLDING S.A.</t>
-  </si>
-  <si>
-    <t>CIA. DISTRIB. DE GÁS DO RIO DE JANEIRO</t>
-  </si>
-  <si>
-    <t>NEOENERGIA S.A</t>
-  </si>
-  <si>
-    <t>NEOGRID PARTICIPACÕES S.A.</t>
-  </si>
-  <si>
-    <t>NORDON INDS METALURGICAS SA</t>
-  </si>
-  <si>
-    <t>NOTRE DAME INTERMEDICA PARTICIPACOES S.A.</t>
-  </si>
-  <si>
-    <t>Nu Pagamentos S. A.</t>
-  </si>
-  <si>
-    <t>NUTRIPLANT INDUSTRIA E COMÉRCIO S/A</t>
-  </si>
-  <si>
-    <t>OCEANPACT SERVIÇOS MARITIMOS S.A.</t>
-  </si>
-  <si>
-    <t>ODONTOPREV S/A</t>
-  </si>
-  <si>
-    <t>OI S.A.</t>
-  </si>
-  <si>
-    <t>ONCOCLÍNICAS DO BRASIL SERVIÇOS MÉDICOS S.A.</t>
-  </si>
-  <si>
-    <t>ORIZON VALORIZACAO DE RESIDUOS S.A.</t>
-  </si>
-  <si>
-    <t>OSX BRASIL S.A.</t>
-  </si>
-  <si>
-    <t>OURO FINO SAUDE ANIMAL PARTICIPACOES S.A.</t>
-  </si>
-  <si>
-    <t>PADTEC HOLDING S.A.</t>
-  </si>
-  <si>
-    <t>EMPREENDIMENTOS PAGUE MENOS S.A.</t>
-  </si>
-  <si>
-    <t>PANATLANTICA SA</t>
-  </si>
-  <si>
-    <t>PARANAPANEMA SA</t>
-  </si>
-  <si>
-    <t>CIA DE PARTICIPAÇÕES ALIANÇA DA BAHIA</t>
-  </si>
-  <si>
-    <t>PDG REALTY SA EMPREENDIMENTOS E PARTS</t>
-  </si>
-  <si>
-    <t>PETRÓLEO BRASILEIRO S.A. – PETROBRAS</t>
-  </si>
-  <si>
-    <t>PETRORECONCAVO S.A.</t>
-  </si>
-  <si>
-    <t>PETRO RIO S.A.</t>
-  </si>
-  <si>
-    <t>PETTENATI SA IND TEXTIL</t>
-  </si>
-  <si>
-    <t>PET CENTER COMÉRCIO E PARTICIPAÇÕES S.A</t>
-  </si>
-  <si>
-    <t>BANCO PINE S/A</t>
-  </si>
-  <si>
-    <t>PLANO &amp; PLANO DESENVOLVIMENTO IMOBILIARIO LTDA</t>
-  </si>
-  <si>
-    <t>PLASCAR PARTICIPAÇÕES INDUSTRIAIS S.A</t>
-  </si>
-  <si>
-    <t>POMIFRUTAS S/A</t>
-  </si>
-  <si>
-    <t>PORTO SEGURO SA</t>
-  </si>
-  <si>
-    <t>PBG S/A</t>
-  </si>
-  <si>
-    <t>POSITIVO TECNOLOGIA S.A.</t>
-  </si>
-  <si>
-    <t>PRINER SERVIÇOS INDUSTRIAIS S.A.</t>
-  </si>
-  <si>
-    <t>PROFARMA DISTRIB. PRODUTOS FARMACEUTICOS</t>
-  </si>
-  <si>
-    <t>QUALICORP S.A.</t>
-  </si>
-  <si>
-    <t>RAIA DROGASIL S.A.</t>
-  </si>
-  <si>
-    <t>RAÍZEN COMBUSTÍVEIS S.A</t>
-  </si>
-  <si>
-    <t>RANDON S.A. IMPLEMENTOS E PARTICIPAÇÕES</t>
-  </si>
-  <si>
-    <t>RECRUSUL SA</t>
-  </si>
-  <si>
-    <t>REDE D OR SÃO LUIZ S.A.</t>
-  </si>
-  <si>
-    <t>REDE ENERGIA S.A.</t>
-  </si>
-  <si>
-    <t>REFINARIA PET MANGUINHOS SA</t>
-  </si>
-  <si>
-    <t>RENOVA ENERGIA S/A</t>
-  </si>
-  <si>
-    <t>RIO PARANAPANEMA ENERGIA S.A.</t>
-  </si>
-  <si>
-    <t>RNI NEGOCIOS IMOBILIARIOS S.A.</t>
-  </si>
-  <si>
-    <t>ROSSI RESIDENCIAL SA</t>
-  </si>
-  <si>
-    <t>RUMO S.A.</t>
-  </si>
-  <si>
-    <t>CIA SANEAMENTO BÁSICO ESTADO SÃO PAULO</t>
-  </si>
-  <si>
-    <t>Vinicola Salton S.a</t>
-  </si>
-  <si>
-    <t>Samarco Mineracao Sa Em Recuperacao Judicial</t>
-  </si>
-  <si>
-    <t>CIA. DE SANEAMENTO DO PARANÁ – SANEPAR</t>
-  </si>
-  <si>
-    <t>SANSUY SA INDÚSTRIA DE PLASTICOS</t>
-  </si>
-  <si>
-    <t>CIA TECIDOS SANTANENSE</t>
-  </si>
-  <si>
-    <t>SANTOS BRASIL PARTICIPAÇÕES S.A.</t>
-  </si>
-  <si>
-    <t>SÃO CARLOS EMPREENDS E PARTICIPAÇÕES S.A</t>
-  </si>
-  <si>
-    <t>SÃO MARTINHO SA</t>
-  </si>
-  <si>
-    <t>SÃO PAULO TURISMO S. A.</t>
-  </si>
-  <si>
-    <t>SARAIVA SA LIVREIROS EDITORES</t>
-  </si>
-  <si>
-    <t>SCHULZ SA</t>
-  </si>
-  <si>
-    <t>SEQUOIA LOGÍSTICA E TRANSPORTES S.A.</t>
-  </si>
-  <si>
-    <t>SER EDUCACIONAL S.A.</t>
-  </si>
-  <si>
-    <t>SIMPAR S.A.</t>
-  </si>
-  <si>
-    <t>SINQUIA S.A.</t>
-  </si>
-  <si>
-    <t>SLC AGRICOLA SA</t>
-  </si>
-  <si>
-    <t>SMARTFIT ESCOLA DE GINÁSTICA E DANÇA S.A.</t>
-  </si>
-  <si>
-    <t>SONDOTECNICA ENGENHARIA DE SOLOS S/A.</t>
-  </si>
-  <si>
-    <t>SPRINGS GLOBAL PARTICIPAÇÕES S/A</t>
-  </si>
-  <si>
-    <t>SUL AMERICA S/A</t>
-  </si>
-  <si>
-    <t>SUZANO PAPEL E CELULOSE S.A.</t>
-  </si>
-  <si>
-    <t>CYRELA COMMERCIAL PROPERTIES SA EMP PART</t>
-  </si>
-  <si>
-    <t>TRANSMISSORA ALIANÇA DE ENERGIA ELÉTRICA S.A.</t>
-  </si>
-  <si>
-    <t>TAURUS S.A.</t>
-  </si>
-  <si>
-    <t>TECHNOS S.A.</t>
-  </si>
-  <si>
-    <t>TECNISA S/A</t>
-  </si>
-  <si>
-    <t>TECNOSOLO S/A</t>
-  </si>
-  <si>
-    <t>TEGMA GESTÃO LOGÍSTICA SA</t>
-  </si>
-  <si>
-    <t>TEKA TECELAGEM KUEHNRICH SA</t>
-  </si>
-  <si>
-    <t>TEKNO S.A. INDÚSTRIA E COMÉRCIO</t>
-  </si>
-  <si>
-    <t>TELEC. BRASILEIRAS S.A. – TELEBRÁS</t>
-  </si>
-  <si>
-    <t>TERRA SANTA PROPRIEDADES AGRICOLAS S.A.</t>
-  </si>
-  <si>
-    <t>TIM S.A.</t>
-  </si>
-  <si>
-    <t>T4F ENTRETENIMENTO S.A.</t>
-  </si>
-  <si>
-    <t>TOTVS S.A</t>
-  </si>
-  <si>
-    <t>TRACK &amp; FIELD CO S.A.</t>
-  </si>
-  <si>
-    <t>TC TRADERS CLUB S.A.</t>
-  </si>
-  <si>
-    <t>TREVISA INVESTIMENTOS SA</t>
-  </si>
-  <si>
-    <t>TRISUL S/A</t>
-  </si>
-  <si>
-    <t>TPI – TRIUNFO PARTICIPACOES E INVESTIMENTOS S.A.</t>
-  </si>
-  <si>
-    <t>CRISTAL PIGMENTOS DO BRASIL S.A.</t>
-  </si>
-  <si>
-    <t>TUPY SA</t>
-  </si>
-  <si>
-    <t>ULTRAPAR PARTICIPAÇÕES SA</t>
-  </si>
-  <si>
-    <t>UNICASA INDÚSTRIA DE MÓVEIS S.A.</t>
-  </si>
-  <si>
-    <t>UNIFIQUE TELECOMUNICACOES S.A.</t>
-  </si>
-  <si>
-    <t>UNIPAR CARBOCLORO S.A.</t>
-  </si>
-  <si>
-    <t>USINAS SIDERURGICAS DE MINAS GERAIS SA</t>
-  </si>
-  <si>
-    <t>VALE S.A.</t>
-  </si>
-  <si>
-    <t>VALID SOLUÇÕES E SERVIÇOS DE SEGURANÇA EM MEIOS DE PAGAMENTO E IDENTIFICAÇÃO S.A.</t>
-  </si>
-  <si>
-    <t>GRUPO CASAS BAHIA S.A.</t>
-  </si>
-  <si>
-    <t>VIBRA ENERGIA S.A</t>
-  </si>
-  <si>
-    <t>VIA VAREJO S.A.</t>
-  </si>
-  <si>
-    <t>VITTIA FERTILIZANTES E BIOLOGICOS S.A.</t>
-  </si>
-  <si>
-    <t>VIVARA PARTICIPACOES S.A.</t>
-  </si>
-  <si>
-    <t>CM HOSPITALAR S.A.</t>
-  </si>
-  <si>
-    <t>VIVER INCORPORADORA E CONSTRUTORA S/A</t>
-  </si>
-  <si>
-    <t>TELEFÔNICA BRASIL S.A.</t>
-  </si>
-  <si>
-    <t>VULCABRAS AZALEIA S.A.</t>
-  </si>
-  <si>
-    <t>LIVETECH DA BAHIA INDÚSTRIA E COMÉRCIO S.A.</t>
-  </si>
-  <si>
-    <t>WEG SA</t>
-  </si>
-  <si>
-    <t>WESTWING COMÉRCIO VAREJISTA S.A.</t>
-  </si>
-  <si>
-    <t>WETZEL S.A.</t>
-  </si>
-  <si>
-    <t>WHIRLPOOL S.A</t>
-  </si>
-  <si>
-    <t>WILSON SONS LIMITED</t>
-  </si>
-  <si>
-    <t>WIZ SOLUÇÕES E CORRETAGEM DE SEGUROS S.A.</t>
-  </si>
-  <si>
-    <t>WLM INDÚSTRIA E COMÉRCIO S.A.</t>
-  </si>
-  <si>
-    <t>ESTACIO PARTICIPAÇÕES SA</t>
   </si>
   <si>
     <t>Consumo não Cíclico/Agropecuária/Agricultura</t>
@@ -6811,7 +6814,7 @@
         <v>1696</v>
       </c>
       <c r="N2" s="2">
-        <v>45345</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -6834,10 +6837,10 @@
         <v>1697</v>
       </c>
       <c r="M3" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="N3" s="2">
-        <v>45345</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6863,7 +6866,7 @@
         <v>1698</v>
       </c>
       <c r="N4" s="2">
-        <v>45343</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6906,10 +6909,10 @@
         <v>1700</v>
       </c>
       <c r="M6" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="N6" s="2">
-        <v>44959</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -6932,7 +6935,7 @@
         <v>1701</v>
       </c>
       <c r="M7" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N7" s="2">
         <v>44985</v>
@@ -6958,7 +6961,7 @@
         <v>1702</v>
       </c>
       <c r="N8" s="2">
-        <v>44903</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -7107,10 +7110,10 @@
         <v>1709</v>
       </c>
       <c r="M15" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="N15" s="2">
-        <v>44956</v>
+        <v>44945</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -7177,6 +7180,9 @@
       <c r="A19" t="s">
         <v>31</v>
       </c>
+      <c r="B19" t="s">
+        <v>419</v>
+      </c>
       <c r="D19" t="s">
         <v>419</v>
       </c>
@@ -7193,7 +7199,7 @@
         <v>1713</v>
       </c>
       <c r="N19" s="2">
-        <v>44967</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -7276,7 +7282,7 @@
         <v>1717</v>
       </c>
       <c r="N23" s="2">
-        <v>45173</v>
+        <v>45101</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -7302,7 +7308,7 @@
         <v>1718</v>
       </c>
       <c r="M24" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="N24" s="2">
         <v>45331</v>
@@ -7331,7 +7337,7 @@
         <v>1719</v>
       </c>
       <c r="M25" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N25" s="2">
         <v>44974</v>
@@ -7400,10 +7406,10 @@
         <v>1722</v>
       </c>
       <c r="M28" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="N28" s="2">
-        <v>44957</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -7428,9 +7434,6 @@
       <c r="L29" t="s">
         <v>1723</v>
       </c>
-      <c r="N29" s="2">
-        <v>44910</v>
-      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -7455,10 +7458,10 @@
         <v>1724</v>
       </c>
       <c r="M30" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="N30" s="2">
-        <v>45321</v>
+        <v>45298</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -7524,7 +7527,7 @@
         <v>1727</v>
       </c>
       <c r="N33" s="2">
-        <v>45328</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -7573,7 +7576,7 @@
         <v>1729</v>
       </c>
       <c r="M35" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="N35" s="2">
         <v>45328</v>
@@ -7605,10 +7608,10 @@
         <v>1730</v>
       </c>
       <c r="M36" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N36" s="2">
-        <v>44984</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -7630,6 +7633,9 @@
       <c r="L37" t="s">
         <v>1731</v>
       </c>
+      <c r="N37" s="2">
+        <v>45246</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
@@ -7694,10 +7700,10 @@
         <v>1734</v>
       </c>
       <c r="M40" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="N40" s="2">
-        <v>44971</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -7723,10 +7729,10 @@
         <v>1735</v>
       </c>
       <c r="M41" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="N41" s="2">
-        <v>44977</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -7798,10 +7804,10 @@
         <v>1738</v>
       </c>
       <c r="M44" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="N44" s="2">
-        <v>44971</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -7843,6 +7849,9 @@
       <c r="L46" t="s">
         <v>1740</v>
       </c>
+      <c r="N46" s="2">
+        <v>45315</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
@@ -7933,10 +7942,10 @@
         <v>1744</v>
       </c>
       <c r="M50" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="N50" s="2">
-        <v>44984</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -7959,10 +7968,10 @@
         <v>1745</v>
       </c>
       <c r="M51" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="N51" s="2">
-        <v>44974</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -8108,7 +8117,7 @@
         <v>1752</v>
       </c>
       <c r="N58" s="2">
-        <v>44966</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -8134,7 +8143,7 @@
         <v>1753</v>
       </c>
       <c r="N59" s="2">
-        <v>45303</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -8443,7 +8452,7 @@
         <v>1768</v>
       </c>
       <c r="M74" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="N74" s="2">
         <v>45344</v>
@@ -8472,10 +8481,10 @@
         <v>1769</v>
       </c>
       <c r="M75" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="N75" s="2">
-        <v>45334</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -8538,7 +8547,7 @@
         <v>1772</v>
       </c>
       <c r="N78" s="2">
-        <v>45329</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -8564,7 +8573,7 @@
         <v>1773</v>
       </c>
       <c r="N79" s="2">
-        <v>44981</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -8627,10 +8636,10 @@
         <v>1776</v>
       </c>
       <c r="M82" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="N82" s="2">
-        <v>44952</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -8695,6 +8704,9 @@
       <c r="L85" t="s">
         <v>1779</v>
       </c>
+      <c r="N85" s="2">
+        <v>45345</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
@@ -8739,7 +8751,7 @@
         <v>1781</v>
       </c>
       <c r="M87" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="N87" s="2">
         <v>44963</v>
@@ -8939,7 +8951,7 @@
         <v>1790</v>
       </c>
       <c r="M97" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="N97" s="2">
         <v>44972</v>
@@ -9008,10 +9020,10 @@
         <v>1793</v>
       </c>
       <c r="M100" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N100" s="2">
-        <v>44960</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -9131,10 +9143,10 @@
         <v>1798</v>
       </c>
       <c r="M106" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N106" s="2">
-        <v>44980</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -9237,10 +9249,10 @@
         <v>1803</v>
       </c>
       <c r="M111" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N111" s="2">
-        <v>44944</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -9263,10 +9275,10 @@
         <v>1804</v>
       </c>
       <c r="M112" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="N112" s="2">
-        <v>44969</v>
+        <v>44952</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -9309,10 +9321,10 @@
         <v>1806</v>
       </c>
       <c r="M114" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="N114" s="2">
-        <v>44936</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -9378,10 +9390,10 @@
         <v>1809</v>
       </c>
       <c r="M117" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="N117" s="2">
-        <v>44981</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -9513,10 +9525,10 @@
         <v>1814</v>
       </c>
       <c r="M123" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N123" s="2">
-        <v>44980</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -9559,13 +9571,16 @@
         <v>1816</v>
       </c>
       <c r="N125" s="2">
-        <v>45315</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>138</v>
       </c>
+      <c r="B126" t="s">
+        <v>419</v>
+      </c>
       <c r="D126" t="s">
         <v>419</v>
       </c>
@@ -9585,7 +9600,7 @@
         <v>1817</v>
       </c>
       <c r="N126" s="2">
-        <v>45174</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -9608,7 +9623,7 @@
         <v>1818</v>
       </c>
       <c r="N127" s="2">
-        <v>44935</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -9651,7 +9666,7 @@
         <v>1820</v>
       </c>
       <c r="M129" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="N129" s="2">
         <v>44959</v>
@@ -9703,10 +9718,10 @@
         <v>1822</v>
       </c>
       <c r="M131" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="N131" s="2">
-        <v>44929</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -9897,7 +9912,7 @@
         <v>1830</v>
       </c>
       <c r="M141" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="N141" s="2">
         <v>44967</v>
@@ -9932,10 +9947,10 @@
         <v>1831</v>
       </c>
       <c r="M142" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="N142" s="2">
-        <v>44984</v>
+        <v>44974</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -9998,10 +10013,10 @@
         <v>1834</v>
       </c>
       <c r="M145" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N145" s="2">
-        <v>44973</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -10207,10 +10222,10 @@
         <v>1844</v>
       </c>
       <c r="M155" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N155" s="2">
-        <v>44970</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -10233,10 +10248,10 @@
         <v>1845</v>
       </c>
       <c r="M156" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N156" s="2">
-        <v>44943</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -10479,10 +10494,10 @@
         <v>1857</v>
       </c>
       <c r="M168" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="N168" s="2">
-        <v>44958</v>
+        <v>44372</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -10582,10 +10597,10 @@
         <v>1861</v>
       </c>
       <c r="M173" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="N173" s="2">
-        <v>44974</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -10671,10 +10686,10 @@
         <v>1865</v>
       </c>
       <c r="M177" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="N177" s="2">
-        <v>45163</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -10717,7 +10732,7 @@
         <v>1867</v>
       </c>
       <c r="N179" s="2">
-        <v>45346</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -10743,10 +10758,10 @@
         <v>1868</v>
       </c>
       <c r="M180" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N180" s="2">
-        <v>44925</v>
+        <v>44903</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -10772,7 +10787,7 @@
         <v>1869</v>
       </c>
       <c r="N181" s="2">
-        <v>44946</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -10801,7 +10816,7 @@
         <v>1870</v>
       </c>
       <c r="N182" s="2">
-        <v>45320</v>
+        <v>45263</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -10895,7 +10910,7 @@
         <v>1873</v>
       </c>
       <c r="M187" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="N187" s="2">
         <v>44918</v>
@@ -10947,7 +10962,7 @@
         <v>1875</v>
       </c>
       <c r="N189" s="2">
-        <v>44984</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -10973,7 +10988,7 @@
         <v>1876</v>
       </c>
       <c r="M190" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="N190" s="2">
         <v>44984</v>
@@ -10999,7 +11014,7 @@
         <v>1877</v>
       </c>
       <c r="N191" s="2">
-        <v>45345</v>
+        <v>45192</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -11026,6 +11041,9 @@
       <c r="A193" t="s">
         <v>205</v>
       </c>
+      <c r="B193" t="s">
+        <v>419</v>
+      </c>
       <c r="D193" t="s">
         <v>419</v>
       </c>
@@ -11051,10 +11069,10 @@
         <v>1879</v>
       </c>
       <c r="M193" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="N193" s="2">
-        <v>44982</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -11106,10 +11124,10 @@
         <v>1881</v>
       </c>
       <c r="M195" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="N195" s="2">
-        <v>44982</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -11132,10 +11150,10 @@
         <v>1882</v>
       </c>
       <c r="M196" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="N196" s="2">
-        <v>44985</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -11161,7 +11179,7 @@
         <v>1883</v>
       </c>
       <c r="M197" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="N197" s="2">
         <v>44936</v>
@@ -11387,10 +11405,10 @@
         <v>1894</v>
       </c>
       <c r="M208" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="N208" s="2">
-        <v>44963</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11439,10 +11457,10 @@
         <v>1896</v>
       </c>
       <c r="M210" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="N210" s="2">
-        <v>44984</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11585,7 +11603,7 @@
         <v>1903</v>
       </c>
       <c r="M217" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="N217" s="2">
         <v>44974</v>
@@ -11617,7 +11635,7 @@
         <v>1904</v>
       </c>
       <c r="M218" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="N218" s="2">
         <v>44973</v>
@@ -11666,10 +11684,10 @@
         <v>1906</v>
       </c>
       <c r="M220" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="N220" s="2">
-        <v>45269</v>
+        <v>45347</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -11695,7 +11713,7 @@
         <v>1907</v>
       </c>
       <c r="M221" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="N221" s="2">
         <v>44965</v>
@@ -11744,7 +11762,7 @@
         <v>1909</v>
       </c>
       <c r="M223" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="N223" s="2">
         <v>45308</v>
@@ -11916,7 +11934,7 @@
         <v>1916</v>
       </c>
       <c r="M231" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="N231" s="2">
         <v>44965</v>
@@ -11999,7 +12017,7 @@
         <v>1919</v>
       </c>
       <c r="M235" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="N235" s="2">
         <v>44965</v>
@@ -12065,7 +12083,7 @@
         <v>1921</v>
       </c>
       <c r="N238" s="2">
-        <v>44974</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12114,10 +12132,10 @@
         <v>1923</v>
       </c>
       <c r="M240" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="N240" s="2">
-        <v>44964</v>
+        <v>44892</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12183,7 +12201,7 @@
         <v>1926</v>
       </c>
       <c r="M243" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="N243" s="2">
         <v>45303</v>
@@ -12241,10 +12259,10 @@
         <v>1928</v>
       </c>
       <c r="M245" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="N245" s="2">
-        <v>44972</v>
+        <v>44947</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -12273,7 +12291,7 @@
         <v>1929</v>
       </c>
       <c r="M246" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="N246" s="2">
         <v>44985</v>
@@ -12345,10 +12363,10 @@
         <v>1932</v>
       </c>
       <c r="M249" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="N249" s="2">
-        <v>44985</v>
+        <v>44961</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -12374,10 +12392,10 @@
         <v>1933</v>
       </c>
       <c r="M250" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="N250" s="2">
-        <v>44985</v>
+        <v>45346</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -12460,10 +12478,10 @@
         <v>1937</v>
       </c>
       <c r="M254" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="N254" s="2">
-        <v>44949</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -12710,6 +12728,9 @@
       <c r="A267" t="s">
         <v>279</v>
       </c>
+      <c r="B267" t="s">
+        <v>419</v>
+      </c>
       <c r="D267" t="s">
         <v>419</v>
       </c>
@@ -12726,10 +12747,10 @@
         <v>1950</v>
       </c>
       <c r="M267" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="N267" s="2">
-        <v>44957</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -12918,10 +12939,10 @@
         <v>1959</v>
       </c>
       <c r="M276" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="N276" s="2">
-        <v>44984</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -12967,7 +12988,7 @@
         <v>1961</v>
       </c>
       <c r="M278" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="N278" s="2">
         <v>44981</v>
@@ -13056,10 +13077,7 @@
         <v>1965</v>
       </c>
       <c r="M282" t="s">
-        <v>2114</v>
-      </c>
-      <c r="N282" s="2">
-        <v>45324</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -13105,7 +13123,7 @@
         <v>1967</v>
       </c>
       <c r="M284" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="N284" s="2">
         <v>44974</v>
@@ -13194,7 +13212,7 @@
         <v>1971</v>
       </c>
       <c r="N288" s="2">
-        <v>44980</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -13260,10 +13278,10 @@
         <v>1974</v>
       </c>
       <c r="M291" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="N291" s="2">
-        <v>44942</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -13524,9 +13542,6 @@
       <c r="A305" t="s">
         <v>317</v>
       </c>
-      <c r="B305" t="s">
-        <v>419</v>
-      </c>
       <c r="D305" t="s">
         <v>419</v>
       </c>
@@ -13546,7 +13561,7 @@
         <v>1986</v>
       </c>
       <c r="N305" s="2">
-        <v>45347</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -13613,6 +13628,9 @@
       <c r="A309" t="s">
         <v>321</v>
       </c>
+      <c r="B309" t="s">
+        <v>419</v>
+      </c>
       <c r="D309" t="s">
         <v>419</v>
       </c>
@@ -13627,6 +13645,9 @@
       </c>
       <c r="L309" t="s">
         <v>1990</v>
+      </c>
+      <c r="N309" s="2">
+        <v>45300</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -13735,10 +13756,10 @@
         <v>1995</v>
       </c>
       <c r="M314" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="N314" s="2">
-        <v>44981</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -13864,10 +13885,10 @@
         <v>2001</v>
       </c>
       <c r="M320" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="N320" s="2">
-        <v>44973</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -13893,7 +13914,7 @@
         <v>2002</v>
       </c>
       <c r="M321" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="N321" s="2">
         <v>44975</v>
@@ -13922,7 +13943,7 @@
         <v>2003</v>
       </c>
       <c r="N322" s="2">
-        <v>44949</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -13968,7 +13989,7 @@
         <v>2005</v>
       </c>
       <c r="M324" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="N324" s="2">
         <v>44974</v>
@@ -14120,10 +14141,10 @@
         <v>2012</v>
       </c>
       <c r="M331" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="N331" s="2">
-        <v>44981</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -14146,7 +14167,7 @@
         <v>2013</v>
       </c>
       <c r="N332" s="2">
-        <v>44979</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -14172,7 +14193,7 @@
         <v>2014</v>
       </c>
       <c r="N333" s="2">
-        <v>45136</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -14218,10 +14239,10 @@
         <v>2016</v>
       </c>
       <c r="M335" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N335" s="2">
-        <v>44963</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -14290,10 +14311,10 @@
         <v>2019</v>
       </c>
       <c r="M338" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="N338" s="2">
-        <v>44985</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="339" spans="1:14">
@@ -14318,9 +14339,6 @@
       <c r="L339" t="s">
         <v>2020</v>
       </c>
-      <c r="N339" s="2">
-        <v>44982</v>
-      </c>
     </row>
     <row r="340" spans="1:14">
       <c r="A340" t="s">
@@ -14462,10 +14480,10 @@
         <v>2027</v>
       </c>
       <c r="M346" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="N346" s="2">
-        <v>44972</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="347" spans="1:14">
@@ -14508,10 +14526,10 @@
         <v>2029</v>
       </c>
       <c r="M348" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="N348" s="2">
-        <v>45110</v>
+        <v>45071</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -14648,10 +14666,10 @@
         <v>2034</v>
       </c>
       <c r="M355" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="N355" s="2">
-        <v>44985</v>
+        <v>44961</v>
       </c>
     </row>
     <row r="356" spans="1:14">
@@ -14677,10 +14695,10 @@
         <v>2035</v>
       </c>
       <c r="M356" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="N356" s="2">
-        <v>44923</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -14912,7 +14930,7 @@
         <v>2046</v>
       </c>
       <c r="M367" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="N367" s="2">
         <v>44981</v>
@@ -15127,7 +15145,7 @@
         <v>2056</v>
       </c>
       <c r="N377" s="2">
-        <v>44973</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="378" spans="1:14">
@@ -15210,7 +15228,7 @@
         <v>2060</v>
       </c>
       <c r="M381" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="N381" s="2">
         <v>44967</v>
@@ -15242,7 +15260,7 @@
         <v>2061</v>
       </c>
       <c r="N382" s="2">
-        <v>45309</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="383" spans="1:14">
@@ -15288,7 +15306,7 @@
         <v>2063</v>
       </c>
       <c r="N384" s="2">
-        <v>44985</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="385" spans="1:14">
@@ -15311,7 +15329,7 @@
         <v>2064</v>
       </c>
       <c r="M385" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="N385" s="2">
         <v>44985</v>
@@ -15337,7 +15355,7 @@
         <v>2065</v>
       </c>
       <c r="M386" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="387" spans="1:14">
@@ -15446,7 +15464,7 @@
         <v>2070</v>
       </c>
       <c r="M391" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="N391" s="2">
         <v>44980</v>
@@ -15543,10 +15561,10 @@
         <v>2073</v>
       </c>
       <c r="M396" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="N396" s="2">
-        <v>44981</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="397" spans="1:14">
@@ -15734,7 +15752,7 @@
         <v>1695</v>
       </c>
       <c r="L406" t="s">
-        <v>1309</v>
+        <v>2081</v>
       </c>
       <c r="N406" s="2">
         <v>44232</v>

--- a/datasets/lista_empresas.xlsx
+++ b/datasets/lista_empresas.xlsx
@@ -1445,11 +1445,7 @@
           <t>amazonas energia</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -1482,7 +1478,7 @@
         </is>
       </c>
       <c r="N24" s="2" t="n">
-        <v>45349.85559027778</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="25">
@@ -6491,11 +6487,7 @@
           <t>edp brasil</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
@@ -6540,7 +6532,7 @@
         </is>
       </c>
       <c r="N141" s="2" t="n">
-        <v>45350.45646990741</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="142">
@@ -8825,12 +8817,12 @@
           <t>hapvida</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr"/>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
@@ -8858,7 +8850,7 @@
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" s="2" t="n">
-        <v>45352</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="196">
@@ -16381,8 +16373,16 @@
           <t>unigel</t>
         </is>
       </c>
-      <c r="B372" t="inlineStr"/>
-      <c r="C372" t="inlineStr"/>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
       <c r="D372" t="inlineStr"/>
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
@@ -16414,7 +16414,7 @@
         </is>
       </c>
       <c r="N372" s="2" t="n">
-        <v>45267</v>
+        <v>45359.71759259259</v>
       </c>
     </row>
     <row r="373">
